--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -44,7 +44,55 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 11:05 AM</t>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Monday, 2 June, 2025 11:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +302,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +314,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +722,136 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>24.32</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +865,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -92,7 +92,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 11:09 AM</t>
+    <t>Monday, 2 June, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -44,30 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
     <t>2:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
     <t>16.3200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -86,13 +107,16 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Monday, 2 June, 2025 11:16 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Monday, 2 June, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -772,18 +796,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -792,66 +816,165 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c t="s" r="Q9" s="12">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>24.32</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c t="s" r="Q10" s="12">
         <v>29</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>26</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>26</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>27</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>203.31999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>35</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>36</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>37</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +998,25 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -44,36 +44,183 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>64.00</t>
   </si>
   <si>
     <t>64.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
   </si>
   <si>
     <t>OMEGA P SYRUP 120 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
     <t>110.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -86,6 +233,21 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -98,7 +260,13 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -107,16 +275,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 11:20 AM</t>
+    <t>Monday, 2 June, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -807,7 +972,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -816,14 +981,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -840,7 +1005,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -856,24 +1021,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -882,31 +1047,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -915,24 +1080,24 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
@@ -943,38 +1108,566 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>203.31999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>35</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>36</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>33</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>37</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>38</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>39</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>42</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>43</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>46</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>53</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>46</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>56</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>46</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>62</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>72</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>75</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>46</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>80</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>81</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>46</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>80</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>46</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>80</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>46</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>80</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>81</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>892.22000000000003</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>90</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>91</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>92</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1013,10 +1706,90 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 11:28 AM</t>
+    <t>Monday, 2 June, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 11:57 AM</t>
+    <t>Monday, 2 June, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 11:59 AM</t>
+    <t>Monday, 2 June, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:03 PM</t>
+    <t>Monday, 2 June, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -281,7 +293,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:04 PM</t>
+    <t>Monday, 2 June, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1285,7 +1297,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1295,14 +1307,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1311,7 +1323,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1328,11 +1340,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1344,7 +1356,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1361,11 +1373,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1377,14 +1389,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1401,7 +1413,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,14 +1422,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1427,14 +1439,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1500,7 +1512,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1509,31 +1521,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1555,18 +1567,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,7 +1587,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1588,18 +1600,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,7 +1620,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1621,53 +1633,86 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>46</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>84</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>85</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>892.22000000000003</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>90</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>91</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>92</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>915.98000000000002</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>94</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>95</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>96</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1786,10 +1831,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -293,7 +293,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:05 PM</t>
+    <t>Monday, 2 June, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -137,9 +149,6 @@
     <t>DROPIFLOX OTIC DROPS 15 ML</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -293,7 +302,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:11 PM</t>
+    <t>Monday, 2 June, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1033,7 +1042,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1043,14 +1052,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1059,7 +1068,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1076,11 +1085,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1092,14 +1101,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1142,11 +1151,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1158,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1175,11 +1184,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1215,7 +1224,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1231,7 +1240,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1241,11 +1250,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1257,14 +1266,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1281,7 +1290,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1297,7 +1306,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1307,11 +1316,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1323,14 +1332,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1347,7 +1356,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1363,7 +1372,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1396,7 +1405,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1429,7 +1438,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1472,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1488,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1505,11 +1514,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1538,14 +1547,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1554,31 +1563,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,20 +1596,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1611,7 +1620,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1627,13 +1636,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1641,10 +1650,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1653,66 +1662,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>49</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>87</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>88</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>915.98000000000002</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>94</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>95</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>96</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>958.98000000000002</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1836,10 +1878,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -89,66 +89,72 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -233,9 +239,6 @@
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -302,7 +305,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:12 PM</t>
+    <t>Monday, 2 June, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1059,7 +1062,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1068,7 +1071,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1085,11 +1088,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1101,7 +1104,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1118,11 +1121,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1134,14 +1137,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,11 +1154,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1167,14 +1170,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1184,11 +1187,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1200,14 +1203,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1217,11 +1220,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1233,14 +1236,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1250,11 +1253,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1266,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,11 +1286,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1316,11 +1319,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1332,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,11 +1352,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1365,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,11 +1385,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1398,14 +1401,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,11 +1418,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1431,14 +1434,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,11 +1451,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1464,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,14 +1484,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,14 +1500,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,11 +1517,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1530,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,11 +1550,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1563,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,14 +1583,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,31 +1599,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,28 +1632,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1662,31 +1665,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,28 +1698,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1724,13 +1727,13 @@
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="P31" s="13">
-        <v>958.98000000000002</v>
+        <v>1001.98</v>
       </c>
       <c r="Q31" s="13"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c t="s" r="A32" s="14">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1738,13 +1741,13 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c t="s" r="G32" s="15">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="16"/>
       <c t="s" r="K32" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -269,9 +281,6 @@
     <t>168.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -305,7 +314,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:16 PM</t>
+    <t>Monday, 2 June, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1012,7 +1021,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1022,14 +1031,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1038,14 +1047,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1062,7 +1071,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1071,14 +1080,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1095,7 +1104,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1104,14 +1113,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1121,14 +1130,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1137,14 +1146,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1161,7 +1170,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1187,14 +1196,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1203,14 +1212,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1220,14 +1229,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1293,7 +1302,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1309,7 +1318,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,11 +1328,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1335,14 +1344,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1359,7 +1368,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1375,7 +1384,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1385,11 +1394,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1401,14 +1410,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,14 +1427,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,14 +1460,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1491,7 +1500,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1524,7 +1533,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1557,7 +1566,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1590,7 +1599,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,31 +1608,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,20 +1641,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1656,7 +1665,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1672,13 +1681,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1686,10 +1695,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,66 +1707,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1001.98</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>98</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>55</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>91</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>92</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1016.98</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>101</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>102</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>103</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +1928,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -314,7 +314,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:18 PM</t>
+    <t>Monday, 2 June, 2025 12:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/10MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -314,7 +323,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:21 PM</t>
+    <t>Monday, 2 June, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1648,24 +1657,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1674,7 +1683,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1687,7 +1696,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1698,7 +1707,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1720,7 +1729,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1728,10 +1737,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1740,7 +1749,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1753,53 +1762,86 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>102</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>55</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>94</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>95</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1016.98</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>101</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>102</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>103</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1088.26</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>104</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>106</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1933,10 +1975,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -152,13 +167,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DROPIFLOX OTIC DROPS 15 ML</t>
@@ -245,7 +263,13 @@
     <t>14.1000</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>21.4500</t>
   </si>
   <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
@@ -257,6 +281,18 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -293,9 +329,6 @@
     <t>حبايه</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -323,7 +356,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 12:29 PM</t>
+    <t>Monday, 2 June, 2025 1:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1129,24 +1162,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1155,7 +1188,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1172,11 +1205,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1188,14 +1221,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1205,11 +1238,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1221,14 +1254,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1238,11 +1271,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1254,14 +1287,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1271,11 +1304,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1287,14 +1320,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1304,14 +1337,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1320,14 +1353,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1337,11 +1370,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1353,14 +1386,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,14 +1403,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1386,14 +1419,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1403,11 +1436,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1419,14 +1452,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,14 +1469,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1452,14 +1485,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1469,11 +1502,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1485,14 +1518,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,11 +1535,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1518,14 +1551,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,14 +1568,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1551,14 +1584,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,14 +1601,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1584,14 +1617,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,11 +1634,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1617,14 +1650,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1641,7 +1674,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1657,7 +1690,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,14 +1700,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,31 +1716,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,31 +1749,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,7 +1782,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1762,18 +1795,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1782,66 +1815,165 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>108</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>61</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>36</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>109</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1088.26</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>104</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>105</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>61</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>36</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>112</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>113</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>61</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>36</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>106</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1168.55</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>115</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>116</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>117</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1980,10 +2112,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -356,7 +365,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 1:38 PM</t>
+    <t>Monday, 2 June, 2025 3:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1591,7 +1600,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1641,7 +1650,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1657,7 +1666,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1690,7 +1699,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1700,14 +1709,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1806,7 +1815,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1822,13 +1831,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1839,7 +1848,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,7 +1881,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,10 +1911,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1914,7 +1923,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1931,49 +1940,82 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>116</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>61</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>36</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>109</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1168.55</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>115</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>116</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>117</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1198.55</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>118</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>119</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>120</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2127,10 +2169,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -203,6 +203,9 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
     <t>FLEXILAX 30 F.C.TAB</t>
   </si>
   <si>
@@ -212,6 +215,18 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -365,7 +380,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 3:11 PM</t>
+    <t>Monday, 2 June, 2025 3:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1450,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1445,11 +1460,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1461,14 +1476,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1478,11 +1493,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1494,14 +1509,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1511,14 +1526,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1527,14 +1542,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1544,14 +1559,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1560,7 +1575,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1577,11 +1592,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1593,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1610,11 +1625,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1626,14 +1641,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1643,14 +1658,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,14 +1724,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,14 +1823,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,11 +1856,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1857,31 +1872,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,31 +1905,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,7 +1938,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1973,49 +1988,115 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1198.55</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>118</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>119</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>61</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>36</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>120</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>121</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>61</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>36</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>114</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1280.7000000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>123</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>124</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>125</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2174,10 +2255,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 3:32 PM</t>
+    <t>Monday, 2 June, 2025 3:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>2:1</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -1368,7 +1380,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1377,14 +1389,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,14 +1406,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1450,7 +1462,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1460,14 +1472,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1476,14 +1488,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1493,11 +1505,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1509,14 +1521,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1582,7 +1594,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1592,14 +1604,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1608,14 +1620,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,11 +1637,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1641,14 +1653,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,11 +1670,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1674,14 +1686,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,11 +1703,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1707,14 +1719,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1731,7 +1743,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1747,7 +1759,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1769,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1790,11 +1802,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1830,7 +1842,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1863,7 +1875,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,7 +1908,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1912,7 +1924,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1922,14 +1934,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,31 +1950,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1988,14 +2000,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2054,49 +2066,82 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>125</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>65</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>36</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>118</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1280.7000000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>123</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>124</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>125</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1303.7000000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>127</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>128</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>129</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2265,10 +2310,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -320,13 +329,10 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -362,6 +368,15 @@
     <t>71.2800</t>
   </si>
   <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -386,13 +401,16 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 3:33 PM</t>
+    <t>Monday, 2 June, 2025 3:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1608,7 +1626,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1620,14 +1638,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1644,7 +1662,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1726,7 +1744,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1759,7 +1777,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1809,7 +1827,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1825,7 +1843,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1858,7 +1876,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1868,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,14 +1919,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,14 +1935,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1934,14 +1952,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1983,31 +2001,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2033,11 +2051,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2049,7 +2067,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2099,49 +2117,115 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1303.7000000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>127</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>128</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>65</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>36</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>129</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>131</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>65</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>36</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>123</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1398.7000000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>133</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>134</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>135</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2315,10 +2399,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 3:34 PM</t>
+    <t>Monday, 2 June, 2025 3:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -278,6 +287,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>OMEGA P SYRUP 120 ML</t>
   </si>
   <si>
@@ -410,7 +428,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 3:35 PM</t>
+    <t>Monday, 2 June, 2025 3:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1597,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1589,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1622,11 +1640,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1659,7 +1677,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1695,7 +1713,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1777,7 +1795,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1810,7 +1828,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1893,7 +1911,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1909,7 +1927,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1926,7 +1944,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1942,7 +1960,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,11 +1970,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2018,11 +2036,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2034,20 +2052,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2058,7 +2076,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2074,13 +2092,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2091,7 +2109,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2107,7 +2125,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2157,7 +2175,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2183,49 +2201,115 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1398.7000000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>133</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>134</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>65</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>36</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>135</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>137</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>65</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>36</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>129</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1472.2000000000001</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>139</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>140</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>141</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2409,10 +2493,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>126.7200</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -269,6 +278,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -287,6 +305,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -428,7 +455,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 3:54 PM</t>
+    <t>Monday, 2 June, 2025 3:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1663,7 +1690,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1710,7 +1737,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1722,14 +1749,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1746,7 +1773,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,7 +1789,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1878,7 +1905,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1894,7 +1921,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1931,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1964,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2010,7 +2037,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2026,7 +2053,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,11 +2063,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2052,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,14 +2096,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,14 +2129,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,31 +2145,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,20 +2178,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2175,7 +2202,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2191,13 +2218,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2208,7 +2235,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2224,7 +2251,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2241,7 +2268,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2267,49 +2294,148 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>140</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>65</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>36</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>141</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>143</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>65</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>36</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>144</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>146</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>65</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>36</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>138</v>
       </c>
-      <c t="s" r="Q43" s="12">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1472.2000000000001</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>139</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>140</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>141</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1809.9200000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>148</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>149</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>150</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2503,10 +2629,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -299,9 +308,6 @@
     <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>26.0000</t>
   </si>
   <si>
@@ -344,13 +350,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:10</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>14.1000</t>
+    <t>21.1500</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
@@ -455,7 +461,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 3:56 PM</t>
+    <t>Monday, 2 June, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,7 +1564,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,14 +1574,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1584,14 +1590,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1601,11 +1607,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1624,7 +1630,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1641,7 +1647,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1657,7 +1663,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1667,14 +1673,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1683,14 +1689,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1707,7 +1713,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1723,7 +1729,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,14 +1739,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1770,7 +1776,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1782,14 +1788,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1806,7 +1812,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1822,7 +1828,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1888,7 +1894,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1898,14 +1904,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1914,14 +1920,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1937,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,7 +1953,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1964,11 +1970,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1980,14 +1986,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,11 +2003,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2013,14 +2019,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2036,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,14 +2052,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,14 +2069,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2079,14 +2085,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,11 +2102,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2112,14 +2118,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,14 +2135,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,14 +2151,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,14 +2168,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,14 +2184,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,14 +2201,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2211,14 +2217,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,14 +2234,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2244,31 +2250,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2277,14 +2283,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2300,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,7 +2316,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2327,14 +2333,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,7 +2349,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2360,14 +2366,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,7 +2382,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2393,49 +2399,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>148</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>65</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>36</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>140</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1809.9200000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>148</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>149</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1868.97</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
         <v>150</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>151</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>152</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2644,10 +2683,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -461,7 +461,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 5:11 PM</t>
+    <t>Monday, 2 June, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -65,33 +65,36 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
     <t>64.00</t>
   </si>
   <si>
@@ -137,6 +140,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -191,6 +200,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DROPIFLOX OTIC DROPS 15 ML</t>
   </si>
   <si>
@@ -206,9 +227,6 @@
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -422,9 +440,6 @@
     <t>جونتي عمال</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -461,7 +476,19 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 5:14 PM</t>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Monday, 2 June, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1228,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1211,11 +1238,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1227,14 +1254,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1244,14 +1271,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1260,28 +1287,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1293,14 +1320,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1310,11 +1337,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1326,14 +1353,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1343,11 +1370,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1359,14 +1386,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1409,11 +1436,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1425,14 +1452,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1442,14 +1469,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1458,14 +1485,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1475,14 +1502,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1491,14 +1518,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1508,14 +1535,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1524,14 +1551,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1541,11 +1568,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1557,14 +1584,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1581,7 +1608,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1597,7 +1624,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1607,14 +1634,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1623,14 +1650,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,14 +1667,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1656,14 +1683,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1673,14 +1700,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1696,7 +1723,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1706,11 +1733,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1722,14 +1749,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1739,14 +1766,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1755,14 +1782,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1772,11 +1799,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1795,7 +1822,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1805,14 +1832,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1821,14 +1848,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1842,10 +1869,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1878,7 +1905,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1894,7 +1921,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,11 +1931,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1937,14 +1964,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1970,7 +1997,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1993,7 +2020,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2010,7 +2037,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2026,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2059,7 +2086,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2076,7 +2103,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2102,14 +2129,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2118,14 +2145,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2135,14 +2162,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2158,7 +2185,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2175,7 +2202,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2191,7 +2218,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2201,11 +2228,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2217,14 +2244,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2234,14 +2261,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,14 +2277,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2267,11 +2294,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2283,20 +2310,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2307,7 +2334,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2323,13 +2350,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2340,7 +2367,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2356,21 +2383,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2382,31 +2409,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2415,24 +2442,24 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2443,38 +2470,137 @@
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1868.97</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>150</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>64</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>37</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>151</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>152</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>153</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>64</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>37</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>145</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>156</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>37</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>157</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1947.97</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>159</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>160</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>161</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2688,10 +2814,25 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -158,16 +170,28 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -197,9 +221,6 @@
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -287,9 +308,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -302,9 +320,6 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -437,6 +452,18 @@
     <t>71.2800</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
@@ -473,22 +500,22 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
     <t>23:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Monday, 2 June, 2025 5:45 PM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>Monday, 2 June, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1245,7 +1272,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1278,7 +1305,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1287,31 +1314,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1320,31 +1347,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1353,14 +1380,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1370,11 +1397,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1386,14 +1413,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1403,11 +1430,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1419,14 +1446,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1459,7 +1486,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,11 +1496,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1485,14 +1512,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1502,14 +1529,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1518,14 +1545,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1535,14 +1562,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1551,14 +1578,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1568,11 +1595,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1584,14 +1611,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,14 +1628,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1617,14 +1644,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1657,7 +1684,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1667,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,14 +1710,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1700,14 +1727,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1716,14 +1743,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1733,14 +1760,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1749,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,14 +1793,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1782,14 +1809,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1822,7 +1849,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1839,7 +1866,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1869,7 +1896,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1881,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1905,7 +1932,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1921,7 +1948,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1935,10 +1962,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1947,14 +1974,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1968,10 +1995,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1980,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,7 +2024,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2020,7 +2047,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2037,7 +2064,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2053,7 +2080,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,11 +2090,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2079,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2112,14 +2139,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,11 +2156,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2145,14 +2172,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2178,14 +2205,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,14 +2222,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,14 +2255,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2244,14 +2271,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2294,11 +2321,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,11 +2387,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2376,31 +2403,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2416,13 +2443,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2433,7 +2460,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2449,21 +2476,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2475,31 +2502,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2515,24 +2542,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2541,20 +2568,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2569,38 +2596,203 @@
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1947.97</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>159</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>71</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>41</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>160</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>161</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>162</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>71</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>41</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>154</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>163</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>164</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>41</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>149</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>71</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>41</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>14</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>166</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>167</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>41</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>24</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2069.1149999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>168</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>169</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>170</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2829,10 +3021,35 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 5:46 PM</t>
+    <t>Monday, 2 June, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -173,9 +185,6 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -311,6 +320,12 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -369,6 +384,15 @@
   </si>
   <si>
     <t>110.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
   </si>
   <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
@@ -1305,7 +1329,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1338,7 +1362,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1347,31 +1371,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1380,31 +1404,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1413,14 +1437,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1430,11 +1454,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1446,14 +1470,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1463,11 +1487,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1479,14 +1503,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1519,7 +1543,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1536,7 +1560,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1545,14 +1569,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1562,14 +1586,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1578,14 +1602,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1595,14 +1619,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1611,14 +1635,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1628,14 +1652,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1644,14 +1668,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1661,14 +1685,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,11 +1718,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1710,14 +1734,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1750,7 +1774,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1767,7 +1791,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1783,7 +1807,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1793,14 +1817,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1809,14 +1833,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,11 +1850,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1849,7 +1873,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1866,7 +1890,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1882,7 +1906,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1892,14 +1916,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1908,14 +1932,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1932,7 +1956,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1948,7 +1972,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1962,10 +1986,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,14 +1998,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1995,7 +2019,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2014,7 +2038,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,14 +2048,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,14 +2064,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2061,10 +2085,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2073,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2090,7 +2114,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2113,7 +2137,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2130,7 +2154,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2146,7 +2170,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,11 +2180,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,11 +2246,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2238,14 +2262,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,14 +2279,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2271,14 +2295,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2288,11 +2312,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2304,14 +2328,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2321,14 +2345,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2337,14 +2361,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,14 +2378,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,14 +2394,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,11 +2411,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2403,14 +2427,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2420,14 +2444,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2436,14 +2460,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2477,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,31 +2493,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2502,31 +2526,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,31 +2559,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,20 +2592,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2608,24 +2632,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2634,31 +2658,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2667,28 +2691,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2700,31 +2724,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2733,66 +2757,165 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>171</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>172</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>45</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>157</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>74</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>45</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>14</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>174</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>175</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>45</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>24</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>25</v>
       </c>
-      <c t="s" r="Q55" s="12">
+      <c t="s" r="Q58" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2069.1149999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>168</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>169</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>170</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2138.645</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>176</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>177</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>178</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3046,10 +3169,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -317,6 +317,9 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>6:4</t>
+  </si>
+  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -539,7 +542,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 5:49 PM</t>
+    <t>Monday, 2 June, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1774,7 +1777,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2005,7 +2008,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2015,7 +2018,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2031,7 +2034,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2064,14 +2067,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2081,7 +2084,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2097,7 +2100,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2114,11 +2117,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2130,7 +2133,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2147,11 +2150,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2163,7 +2166,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2196,7 +2199,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2213,11 +2216,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2229,7 +2232,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2246,11 +2249,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2262,7 +2265,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2279,11 +2282,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,7 +2315,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2328,7 +2331,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2345,11 +2348,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2361,7 +2364,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2378,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2394,7 +2397,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2427,7 +2430,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2444,11 +2447,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2460,7 +2463,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2477,11 +2480,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>42</v>
@@ -2493,14 +2496,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2510,11 +2513,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2526,14 +2529,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2543,11 +2546,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2559,7 +2562,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2576,11 +2579,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2592,14 +2595,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2609,11 +2612,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2625,7 +2628,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2658,7 +2661,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2675,11 +2678,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>42</v>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2708,11 +2711,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2724,7 +2727,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2774,11 +2777,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>42</v>
@@ -2790,14 +2793,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2807,11 +2810,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2823,7 +2826,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2856,14 +2859,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2891,7 +2894,7 @@
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c t="s" r="A60" s="14">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2899,13 +2902,13 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c t="s" r="G60" s="15">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
       <c t="s" r="K60" s="17">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -479,6 +479,15 @@
     <t>71.2800</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -494,9 +503,6 @@
     <t>جونتي عمال</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -542,7 +548,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 6:08 PM</t>
+    <t>Monday, 2 June, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,24 +2608,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2645,11 +2651,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,7 +2700,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2727,7 +2733,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2760,7 +2766,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2833,7 +2839,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2843,11 +2849,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2876,49 +2882,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2138.645</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>177</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>178</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>45</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>24</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2188.645</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
         <v>179</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>180</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>181</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3187,10 +3226,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -242,6 +251,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>DROPIFLOX OTIC DROPS 15 ML</t>
   </si>
   <si>
@@ -263,6 +281,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -356,6 +383,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
   </si>
   <si>
@@ -428,6 +464,15 @@
     <t>21.4500</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
@@ -452,9 +497,6 @@
     <t>2:5</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -548,7 +590,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 6:16 PM</t>
+    <t>Monday, 2 June, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1255,7 +1297,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1265,14 +1307,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1281,14 +1323,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1298,14 +1340,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1314,14 +1356,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1331,11 +1373,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1347,14 +1389,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1364,14 +1406,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1380,14 +1422,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1397,14 +1439,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1413,31 +1455,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1446,20 +1488,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1470,7 +1512,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1486,7 +1528,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1519,7 +1561,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1552,7 +1594,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1585,7 +1627,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1602,7 +1644,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1611,14 +1653,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1628,14 +1670,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1644,14 +1686,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1661,14 +1703,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1677,14 +1719,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1694,14 +1736,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1710,14 +1752,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1727,14 +1769,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1743,14 +1785,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1760,11 +1802,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1776,14 +1818,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1793,14 +1835,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1809,14 +1851,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1833,7 +1875,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1849,7 +1891,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1859,14 +1901,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1875,14 +1917,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1892,11 +1934,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1908,14 +1950,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1925,14 +1967,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1941,14 +1983,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1958,11 +2000,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1974,14 +2016,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1991,14 +2033,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2007,14 +2049,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2024,14 +2066,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2040,14 +2082,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2057,11 +2099,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2073,14 +2115,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2094,10 +2136,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2106,14 +2148,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2123,14 +2165,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2139,14 +2181,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,14 +2198,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2179,7 +2221,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2189,14 +2231,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,7 +2247,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2222,14 +2264,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2238,14 +2280,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2255,11 +2297,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2271,14 +2313,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2288,14 +2330,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2304,14 +2346,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2321,14 +2363,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2361,7 +2403,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2377,7 +2419,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2394,7 +2436,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2403,14 +2445,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,14 +2462,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2436,14 +2478,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2457,7 +2499,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2469,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2486,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2519,14 +2561,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,14 +2594,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2568,14 +2610,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2585,11 +2627,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2601,14 +2643,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2618,11 +2660,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2634,31 +2676,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2667,31 +2709,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2700,20 +2742,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2724,7 +2766,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2740,13 +2782,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2757,7 +2799,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2773,13 +2815,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2790,7 +2832,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2806,24 +2848,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2832,28 +2874,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2865,31 +2907,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2898,66 +2940,231 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2188.645</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>184</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>77</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>48</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>185</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>187</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>77</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>48</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>179</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>180</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>181</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>188</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>189</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>48</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>175</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>190</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>77</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>48</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>14</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>192</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>48</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>27</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2399.46</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>193</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>194</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>195</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3231,10 +3438,35 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -590,7 +590,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 6:18 PM</t>
+    <t>Monday, 2 June, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -374,6 +383,9 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -569,7 +581,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>14.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -590,7 +602,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 6:25 PM</t>
+    <t>Monday, 2 June, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1957,7 +1969,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1974,7 +1986,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1990,7 +2002,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2000,14 +2012,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2033,11 +2045,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2056,7 +2068,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2073,7 +2085,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2089,7 +2101,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2099,14 +2111,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2139,7 +2151,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2155,7 +2167,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,14 +2177,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2188,7 +2200,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2198,11 +2210,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2214,14 +2226,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2231,11 +2243,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2254,7 +2266,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2287,7 +2299,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2320,7 +2332,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2346,7 +2358,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2363,11 +2375,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2396,11 +2408,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2412,7 +2424,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2429,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2528,11 +2540,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,11 +2672,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,11 +2738,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2841,31 +2853,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2874,31 +2886,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2931,7 +2943,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2947,7 +2959,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2957,11 +2969,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2973,7 +2985,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3006,7 +3018,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3046,7 +3058,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3072,7 +3084,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3122,49 +3134,115 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2399.46</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>193</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>194</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>77</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>48</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>14</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>195</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>196</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>48</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>27</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2624.46</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>197</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>198</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>199</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3463,10 +3541,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>180.0000</t>
+    <t>270.0000</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -359,6 +359,15 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -503,6 +512,12 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -602,7 +617,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 6:42 PM</t>
+    <t>Monday, 2 June, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1984,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1986,7 +2001,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2233,7 +2248,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2243,11 +2258,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2259,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2276,11 +2291,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2299,7 +2314,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2309,14 +2324,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2332,7 +2347,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2342,11 +2357,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2375,11 +2390,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2398,7 +2413,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2415,7 +2430,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2431,7 +2446,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2441,14 +2456,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2497,7 +2512,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2514,7 +2529,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2563,7 +2578,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2573,14 +2588,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2596,7 +2611,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2606,14 +2621,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2629,7 +2644,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2646,7 +2661,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,14 +2687,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2695,7 +2710,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2728,7 +2743,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2761,7 +2776,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2778,7 +2793,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2794,7 +2809,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2819,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2827,7 +2842,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,14 +2852,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2853,14 +2868,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2886,14 +2901,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,14 +2918,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,31 +2934,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,31 +2967,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2992,7 +3007,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3002,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,11 +3050,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3051,7 +3066,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3068,14 +3083,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3084,7 +3099,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3101,14 +3116,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3117,14 +3132,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,14 +3149,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3150,7 +3165,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3167,14 +3182,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3183,14 +3198,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3200,49 +3215,115 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2624.46</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>197</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>198</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>199</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>77</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>48</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>14</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>201</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>48</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>27</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2754.46</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>202</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>203</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>204</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3551,10 +3632,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>79.5000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -134,6 +146,15 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -242,9 +263,6 @@
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -350,6 +368,15 @@
     <t>126.7200</t>
   </si>
   <si>
+    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -539,6 +566,12 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/10MG 30 TABLETS</t>
   </si>
   <si>
@@ -617,7 +650,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 6:45 PM</t>
+    <t>Monday, 2 June, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1473,7 +1506,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1506,7 +1539,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1515,31 +1548,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1548,14 +1581,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1565,14 +1598,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1581,31 +1614,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1614,14 +1647,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1631,11 +1664,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1647,14 +1680,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1664,11 +1697,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1680,14 +1713,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1697,14 +1730,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1720,7 +1753,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1730,14 +1763,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1746,14 +1779,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1763,14 +1796,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1779,14 +1812,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1796,14 +1829,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1812,14 +1845,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1829,11 +1862,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1845,14 +1878,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1869,7 +1902,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1885,7 +1918,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1895,11 +1928,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1911,14 +1944,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1928,14 +1961,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1944,14 +1977,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1968,7 +2001,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1984,7 +2017,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2001,7 +2034,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2017,7 +2050,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2034,7 +2067,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2050,7 +2083,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2060,14 +2093,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2093,14 +2126,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2109,14 +2142,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,14 +2159,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2149,7 +2182,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2159,11 +2192,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2175,14 +2208,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,14 +2225,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2208,14 +2241,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2225,11 +2258,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2248,7 +2281,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2265,7 +2298,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2281,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2291,14 +2324,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2307,14 +2340,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2324,11 +2357,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2340,14 +2373,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2357,14 +2390,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2373,14 +2406,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2390,14 +2423,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2406,14 +2439,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2439,14 +2472,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,14 +2489,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2472,14 +2505,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,11 +2522,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2505,14 +2538,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,14 +2555,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2538,14 +2571,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,14 +2588,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2571,14 +2604,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,7 +2621,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2611,7 +2644,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,11 +2654,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2644,7 +2677,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2677,7 +2710,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2694,7 +2727,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2703,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2724,7 +2757,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2736,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2769,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,14 +2819,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2809,7 +2842,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2826,7 +2859,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2842,7 +2875,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,11 +2885,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2868,14 +2901,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,11 +2918,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2901,14 +2934,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2925,7 +2958,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2941,7 +2974,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,11 +2984,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2967,14 +3000,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2984,11 +3017,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3000,31 +3033,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,31 +3066,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3073,13 +3106,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3090,7 +3123,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3106,13 +3139,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3123,7 +3156,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3139,24 +3172,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,31 +3198,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,31 +3231,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,28 +3264,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3264,66 +3297,198 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>207</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>34</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>55</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>199</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>209</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>55</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>195</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>210</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>34</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>55</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>14</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>211</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>212</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>55</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>27</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>28</v>
       </c>
-      <c t="s" r="Q68" s="12">
+      <c t="s" r="Q72" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2754.46</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>202</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>203</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>204</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3034.9699999999998</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>213</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>214</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>215</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3642,10 +3807,30 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -248,6 +257,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -398,9 +416,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -455,6 +470,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -596,12 +620,6 @@
     <t>39:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
@@ -629,7 +647,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -650,7 +668,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 6:59 PM</t>
+    <t>Monday, 2 June, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1390,7 +1408,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1400,14 +1418,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1416,14 +1434,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1433,14 +1451,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1449,14 +1467,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1466,11 +1484,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1482,14 +1500,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1499,11 +1517,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1515,14 +1533,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1532,14 +1550,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1548,14 +1566,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1572,7 +1590,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1588,7 +1606,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1598,14 +1616,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1614,31 +1632,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1647,20 +1665,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1671,7 +1689,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1687,7 +1705,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1720,7 +1738,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1753,7 +1771,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1786,7 +1804,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1803,7 +1821,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1812,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1829,14 +1847,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1845,14 +1863,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1862,14 +1880,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1878,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1913,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1928,14 +1946,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1968,7 +1986,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1984,7 +2002,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,11 +2012,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2010,14 +2028,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2027,14 +2045,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2067,7 +2085,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2083,7 +2101,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2100,7 +2118,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2116,7 +2134,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2133,7 +2151,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2149,7 +2167,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2159,14 +2177,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2248,7 +2266,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2258,11 +2276,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2331,7 +2349,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2347,7 +2365,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2375,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2380,7 +2398,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2397,7 +2415,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2413,7 +2431,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2423,11 +2441,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2460,7 +2478,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2555,11 +2573,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,7 +2639,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2644,7 +2662,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2677,7 +2695,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,11 +2705,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,11 +2804,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,7 +3002,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3007,7 +3025,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,7 +3035,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3040,7 +3058,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,14 +3068,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,11 +3101,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3099,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,11 +3134,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3156,7 +3174,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3172,24 +3190,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3198,31 +3216,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3238,13 +3256,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3255,7 +3273,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3271,21 +3289,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3297,31 +3315,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,31 +3348,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,28 +3381,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3403,24 +3421,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,66 +3447,165 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>214</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>215</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>58</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>154</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3034.9699999999998</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>213</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>214</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>215</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>216</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>37</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>58</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>14</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>217</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>218</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>58</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>30</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3106.0799999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>219</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>220</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>221</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3827,10 +3944,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -110,120 +110,123 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>123.6900</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>79.5000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>79.5000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>8.1600</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>CAL-MAG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -239,9 +242,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -395,6 +395,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -500,12 +506,15 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
@@ -596,6 +605,15 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/10MG 30 TABLETS</t>
   </si>
   <si>
@@ -629,30 +647,30 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -668,7 +686,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 7:08 PM</t>
+    <t>Monday, 2 June, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1491,7 +1509,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1500,14 +1518,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1517,11 +1535,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1533,14 +1551,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1550,11 +1568,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1566,14 +1584,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1705,7 +1723,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1738,7 +1756,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1771,7 +1789,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1804,7 +1822,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,11 +1832,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1830,7 +1848,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1986,7 +2004,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2002,7 +2020,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2167,7 +2185,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2184,7 +2202,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2266,7 +2284,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2299,7 +2317,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2382,7 +2400,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2398,7 +2416,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2431,21 +2449,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2478,7 +2496,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2577,10 +2595,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2606,11 +2624,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,11 +2657,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2728,7 +2746,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,11 +2822,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,11 +2855,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2910,7 +2928,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2926,7 +2944,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2943,7 +2961,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>174</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3025,7 +3043,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3058,7 +3076,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3075,7 +3093,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3091,7 +3109,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,7 +3152,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,7 +3251,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3256,7 +3274,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3289,24 +3307,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,31 +3333,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3398,11 +3416,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3421,7 +3439,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3435,10 +3453,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3563,49 +3581,115 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3106.0799999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>219</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>220</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>221</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>38</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>58</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>14</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>223</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>224</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>58</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>30</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3402.02</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>225</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>226</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>227</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3959,10 +4043,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -257,6 +266,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIDDER 75 GM CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -503,6 +521,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -686,7 +713,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 7:17 PM</t>
+    <t>Monday, 2 June, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1882,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1872,7 +1899,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1888,7 +1915,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1898,11 +1925,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>33</v>
@@ -1914,14 +1941,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1931,14 +1958,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1947,14 +1974,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1971,7 +1998,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1987,7 +2014,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1997,14 +2024,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2013,14 +2040,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2030,14 +2057,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2046,14 +2073,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2070,7 +2097,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2086,7 +2113,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2096,11 +2123,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2112,14 +2139,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2129,14 +2156,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2145,14 +2172,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2169,7 +2196,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2185,7 +2212,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2202,7 +2229,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2218,7 +2245,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2235,7 +2262,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2251,7 +2278,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2350,7 +2377,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2360,11 +2387,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2433,7 +2460,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2449,24 +2476,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2496,10 +2523,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2508,24 +2535,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2548,7 +2575,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,11 +2618,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2607,14 +2634,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,14 +2651,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2647,7 +2674,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2690,11 +2717,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2756,11 +2783,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2772,14 +2799,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,11 +2816,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,7 +2849,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2845,7 +2872,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2862,7 +2889,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2878,7 +2905,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2911,7 +2938,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,14 +2948,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,11 +2981,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2970,14 +2997,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2987,14 +3014,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3003,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3047,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,14 +3063,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,14 +3080,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>183</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3109,7 +3136,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3126,7 +3153,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3142,7 +3169,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,11 +3179,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3168,14 +3195,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,11 +3212,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3225,7 +3252,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3241,7 +3268,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3251,7 +3278,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3274,7 +3301,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,7 +3311,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3307,7 +3334,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3317,14 +3344,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,14 +3360,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,7 +3377,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3373,24 +3400,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3399,31 +3426,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3432,31 +3459,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,14 +3492,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,11 +3509,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3498,14 +3525,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3515,14 +3542,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,7 +3558,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3548,14 +3575,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,14 +3591,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3581,11 +3608,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3597,7 +3624,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3614,14 +3641,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3630,14 +3657,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3647,49 +3674,148 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>230</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>58</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>162</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>231</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>38</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>58</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>14</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>233</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>58</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>30</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q77" s="12">
+      <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3402.02</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>225</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>226</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>227</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3601.0450000000001</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>234</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>235</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>236</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4053,10 +4179,25 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -155,6 +164,15 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CAL-MAG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -185,15 +203,24 @@
     <t>29:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
     <t>12.0000</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -206,12 +233,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -251,6 +272,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -542,12 +572,24 @@
     <t>115.0000</t>
   </si>
   <si>
+    <t>PONOFORTE 500MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -572,6 +614,12 @@
     <t>21.4500</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -620,9 +668,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -689,7 +734,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -713,7 +758,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 7:45 PM</t>
+    <t>Monday, 2 June, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,15 +1603,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1578,14 +1623,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1595,11 +1640,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1611,14 +1656,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1635,7 +1680,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1651,7 +1696,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1668,7 +1713,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1684,7 +1729,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1694,14 +1739,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1710,31 +1755,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1743,14 +1788,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1760,14 +1805,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1776,31 +1821,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1809,14 +1854,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1849,7 +1894,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1859,11 +1904,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1875,7 +1920,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1892,11 +1937,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1908,14 +1953,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1925,14 +1970,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1941,14 +1986,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1958,14 +2003,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1981,7 +2026,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1991,14 +2036,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2007,14 +2052,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2024,14 +2069,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2040,14 +2085,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2061,10 +2106,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2073,14 +2118,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2090,11 +2135,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>33</v>
@@ -2106,14 +2151,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2123,11 +2168,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2139,14 +2184,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2156,14 +2201,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2172,14 +2217,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2189,14 +2234,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2205,14 +2250,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2222,14 +2267,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2238,14 +2283,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2255,14 +2300,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2271,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2288,14 +2333,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2304,14 +2349,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2321,14 +2366,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2337,14 +2382,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2354,14 +2399,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2377,7 +2422,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2410,7 +2455,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2427,7 +2472,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2443,7 +2488,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2453,14 +2498,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2469,7 +2514,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2486,14 +2531,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2502,14 +2547,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2519,14 +2564,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2535,31 +2580,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2568,14 +2613,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2585,11 +2630,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2601,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2618,14 +2663,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2634,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,14 +2696,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2667,28 +2712,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2707,7 +2752,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2740,7 +2785,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2750,14 +2795,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2766,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2783,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2806,7 +2851,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2816,11 +2861,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2839,7 +2884,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,11 +2894,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2865,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,14 +2927,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2898,14 +2943,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,11 +2960,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2931,14 +2976,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,14 +2993,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2964,14 +3009,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,11 +3026,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2997,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,11 +3059,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3030,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3047,14 +3092,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3063,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,11 +3125,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3096,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3129,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,11 +3191,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3162,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,11 +3257,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3228,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3245,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3261,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3344,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,11 +3422,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3393,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3410,11 +3455,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3426,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3443,11 +3488,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3459,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,14 +3521,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,31 +3537,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,31 +3570,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,31 +3603,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,31 +3636,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3624,31 +3669,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3657,31 +3702,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3690,31 +3735,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3730,21 +3775,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3756,66 +3801,297 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3601.0450000000001</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>234</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>41</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>39</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>235</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>236</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>41</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>39</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>237</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>239</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>41</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>39</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>240</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>242</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>41</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>39</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>235</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>244</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>245</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>39</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>172</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>246</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>41</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>39</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>14</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>248</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>39</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>30</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3742.3249999999998</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>249</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>250</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>251</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4194,10 +4470,45 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -194,9 +206,6 @@
     <t>86.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -329,12 +338,6 @@
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -758,7 +761,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 7:51 PM</t>
+    <t>Monday, 2 June, 2025 7:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1449,7 +1452,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1458,14 +1461,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1482,7 +1485,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1491,14 +1494,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1508,14 +1511,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1524,14 +1527,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1548,7 +1551,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1581,7 +1584,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1590,31 +1593,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1623,31 +1626,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1680,7 +1683,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1696,7 +1699,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1706,14 +1709,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1722,14 +1725,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1739,14 +1742,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1755,14 +1758,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1772,14 +1775,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1788,14 +1791,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1812,7 +1815,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1821,31 +1824,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1854,31 +1857,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1887,14 +1890,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1911,7 +1914,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1927,7 +1930,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1937,14 +1940,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1953,14 +1956,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1970,14 +1973,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1993,7 +1996,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,14 +2006,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2019,14 +2022,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2043,7 +2046,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2059,7 +2062,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2076,7 +2079,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2092,7 +2095,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2102,14 +2105,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2125,7 +2128,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2135,14 +2138,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2151,14 +2154,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2171,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2184,14 +2187,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2224,7 +2227,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2241,7 +2244,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2257,7 +2260,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2267,14 +2270,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2307,7 +2310,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2323,7 +2326,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2333,14 +2336,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2352,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2369,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2385,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,11 +2402,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2415,7 +2418,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2432,14 +2435,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2451,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,14 +2468,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2481,14 +2484,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2501,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2534,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2554,7 +2557,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2567,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2583,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2600,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2613,14 +2616,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2633,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2649,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2666,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,14 +2682,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,14 +2699,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2712,31 +2715,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2745,31 +2748,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2778,14 +2781,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2798,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,14 +2814,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,14 +2831,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2851,7 +2854,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2864,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,14 +2897,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2910,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,11 +2930,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2950,7 +2953,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,11 +2963,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2976,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,14 +3029,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,14 +3095,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3108,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,11 +3128,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3141,14 +3144,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,11 +3161,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3174,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3194,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3227,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3240,14 +3243,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3260,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3273,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,14 +3293,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3306,14 +3309,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3326,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3339,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3372,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,14 +3408,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,14 +3491,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3507,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3524,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,14 +3557,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,14 +3573,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3587,14 +3590,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,14 +3606,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3620,14 +3623,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3636,14 +3639,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3653,14 +3656,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,14 +3672,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3686,14 +3689,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3702,14 +3705,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3719,14 +3722,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,14 +3738,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3752,14 +3755,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,31 +3771,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3801,28 +3804,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3841,24 +3844,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,31 +3870,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3900,31 +3903,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,31 +3936,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>61</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3966,31 +3969,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3999,28 +4002,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4039,59 +4042,92 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3742.3249999999998</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>248</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
         <v>249</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>43</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>34</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>3776.3249999999998</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>250</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>251</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>252</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4505,10 +4541,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -761,7 +761,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 7:53 PM</t>
+    <t>Monday, 2 June, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CAL-MAG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -305,6 +314,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DICLAC 75 MG/3ML 5 AMPS.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>DIDDER 75 GM CREAM</t>
   </si>
   <si>
@@ -497,12 +515,6 @@
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -743,7 +755,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>21.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -761,7 +773,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 7:55 PM</t>
+    <t>Monday, 2 June, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1815,7 +1827,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1831,7 +1843,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1841,14 +1853,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1857,31 +1869,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1890,31 +1902,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1973,11 +1985,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1989,7 +2001,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2006,11 +2018,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2029,7 +2041,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2039,11 +2051,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2055,14 +2067,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2095,7 +2107,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2112,7 +2124,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2128,7 +2140,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2161,7 +2173,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,14 +2183,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2260,7 +2272,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2277,7 +2289,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2293,7 +2305,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2402,11 +2414,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2475,7 +2487,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2491,7 +2503,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2508,7 +2520,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2524,7 +2536,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2541,7 +2553,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2557,7 +2569,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2656,7 +2668,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2739,7 +2751,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2755,24 +2767,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2802,10 +2814,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2814,24 +2826,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2854,7 +2866,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2953,7 +2965,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,11 +3008,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,11 +3107,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,11 +3140,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,11 +3206,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,11 +3305,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3309,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3359,14 +3371,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,11 +3503,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,11 +3602,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3689,11 +3701,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3788,11 +3800,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3804,31 +3816,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,31 +3849,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3920,11 +3932,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3936,7 +3948,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>242</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3969,7 +3981,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3986,14 +3998,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4052,14 +4064,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4085,49 +4097,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3776.3249999999998</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>250</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>251</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>45</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>43</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>14</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>252</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>253</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>43</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>34</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3929.3249999999998</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>254</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>255</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>256</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4546,10 +4624,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -251,6 +251,12 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -344,153 +350,162 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>126.7200</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>31.6800</t>
   </si>
   <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>45.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>126.7200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -593,6 +608,15 @@
     <t>30.00</t>
   </si>
   <si>
+    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -773,7 +797,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 7:56 PM</t>
+    <t>Monday, 2 June, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2065,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2051,14 +2075,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2067,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,11 +2108,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2100,14 +2124,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,11 +2141,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,14 +2190,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,14 +2207,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2282,11 +2306,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,11 +2339,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2348,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2381,14 +2405,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,14 +2504,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,11 +2537,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2529,7 +2553,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2579,14 +2603,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,14 +2669,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2668,7 +2692,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,11 +2702,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2793,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2826,31 +2850,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2892,28 +2916,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2965,7 +2989,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,11 +2999,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2998,7 +3022,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3041,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,7 +3147,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3140,11 +3164,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3163,7 +3187,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3196,7 +3220,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,11 +3296,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3427,7 +3451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3466,7 +3490,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3477,7 +3501,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3510,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,11 +3527,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3519,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3592,7 +3616,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3625,7 +3649,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3639,10 +3663,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,14 +3675,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,7 +3692,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3691,7 +3715,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,7 +3725,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3724,7 +3748,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3758,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3757,7 +3781,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,7 +3791,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3790,7 +3814,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,7 +3824,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3823,7 +3847,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3856,7 +3880,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,11 +3890,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3882,31 +3906,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3922,24 +3946,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,31 +3972,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,14 +4055,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4064,14 +4088,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4087,7 +4111,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,11 +4121,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4113,7 +4137,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4130,14 +4154,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4146,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4163,49 +4187,148 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>257</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>258</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>43</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>182</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>45</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>43</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>14</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>260</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>261</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>43</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>34</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q90" s="12">
+      <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3929.3249999999998</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>254</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>255</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>256</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4276.9650000000001</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>263</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>264</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4634,10 +4757,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 8:20 PM</t>
+    <t>Monday, 2 June, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -218,279 +227,276 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>12.00</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 MG/3ML 5 AMPS.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DIDDER 75 GM CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>126.7200</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>COLD FREE 20 TAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>CONVENTIN 100MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 MG/3ML 5 AMPS.</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>DIDDER 75 GM CREAM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>45.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>126.7200</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -512,9 +518,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -554,6 +557,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NORFLEX 30MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>6.2700</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -743,6 +755,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -773,7 +791,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -785,7 +803,19 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>صابون النابلسي</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -797,7 +827,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 8:33 PM</t>
+    <t>Monday, 2 June, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1930,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1910,14 +1940,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1926,31 +1956,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1959,31 +1989,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1992,14 +2022,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2009,11 +2039,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -2025,7 +2055,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2042,11 +2072,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2058,14 +2088,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,14 +2105,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2098,7 +2128,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2138,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2124,14 +2154,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2141,11 +2171,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2157,14 +2187,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2174,11 +2204,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2190,14 +2220,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2207,14 +2237,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2223,14 +2253,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2240,14 +2270,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,14 +2286,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2273,14 +2303,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2319,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2336,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,14 +2352,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,11 +2369,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2355,14 +2385,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,11 +2402,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2388,14 +2418,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,14 +2435,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2421,14 +2451,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2468,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2454,14 +2484,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2471,14 +2501,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2494,7 +2524,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,14 +2534,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2520,14 +2550,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,14 +2567,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2553,14 +2583,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,11 +2600,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2586,7 +2616,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2603,14 +2633,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2619,14 +2649,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2636,14 +2666,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2652,14 +2682,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2669,14 +2699,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2685,14 +2715,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,14 +2732,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2725,7 +2755,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,11 +2765,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2751,14 +2781,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,14 +2798,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2784,14 +2814,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2831,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,14 +2847,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,14 +2864,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2850,14 +2880,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2897,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2883,14 +2913,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,11 +2930,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2916,31 +2946,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,28 +2979,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2982,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,11 +3029,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3015,14 +3045,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3062,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3055,7 +3085,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3095,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3128,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3144,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,11 +3161,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3154,7 +3184,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,11 +3194,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3187,7 +3217,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,14 +3227,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3213,14 +3243,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,14 +3260,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3246,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3293,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,14 +3309,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3312,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,14 +3359,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,14 +3375,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,11 +3392,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3378,14 +3408,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3425,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3444,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,11 +3491,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3477,31 +3507,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,11 +3557,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3543,28 +3573,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3576,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3623,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>210</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3656,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3672,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3689,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,11 +3722,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3708,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,11 +3755,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3741,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3788,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3804,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3821,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3807,14 +3837,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,14 +3854,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,14 +3870,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3887,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3903,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,11 +3920,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3906,14 +3936,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,14 +3953,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,14 +3969,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3986,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3972,14 +4002,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,11 +4019,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4005,31 +4035,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,31 +4068,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,14 +4101,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,14 +4118,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,14 +4134,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,11 +4151,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4144,7 +4174,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,14 +4184,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,7 +4200,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4187,14 +4217,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,14 +4233,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4250,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4236,7 +4266,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4253,14 +4283,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4269,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,49 +4316,181 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>264</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>43</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>186</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>72</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>43</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>267</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>269</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>45</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>43</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>14</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>270</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>271</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>43</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>34</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q93" s="12">
+      <c t="s" r="Q97" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4276.9650000000001</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>262</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>263</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>264</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4363.0749999999998</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>272</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>273</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>274</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4772,10 +4934,30 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -275,93 +275,93 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 MG/3ML 5 AMPS.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DIDDER 75 GM CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 MG/3ML 5 AMPS.</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>DIDDER 75 GM CREAM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -479,6 +479,9 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
   </si>
   <si>
@@ -707,10 +710,10 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>16.3200</t>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>32.6400</t>
   </si>
   <si>
     <t>XORAXON 1GM I.M. VIAL</t>
@@ -791,7 +794,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -827,7 +830,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 8:59 PM</t>
+    <t>Monday, 2 June, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2194,7 +2197,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2204,14 +2207,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2220,7 +2223,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2237,11 +2240,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2253,7 +2256,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2270,11 +2273,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>37</v>
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2303,7 +2306,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2319,7 +2322,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>37</v>
@@ -2352,14 +2355,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2369,11 +2372,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2385,7 +2388,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2402,11 +2405,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2418,7 +2421,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2468,11 +2471,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2484,7 +2487,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2501,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2986,24 +2989,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3012,28 +3015,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3045,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,11 +3065,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3095,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3111,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3128,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3161,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3194,11 +3197,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3217,7 +3220,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3227,11 +3230,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3250,7 +3253,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3260,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3293,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3309,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3342,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,11 +3362,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3375,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3392,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3408,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,11 +3428,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3441,7 +3444,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3458,11 +3461,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3491,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3573,7 +3576,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3586,18 +3589,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3606,31 +3609,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3639,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3672,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3689,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3738,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,11 +3758,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3771,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,11 +3791,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,11 +3824,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,14 +3857,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3887,14 +3890,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3920,11 +3923,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3936,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3953,14 +3956,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3986,14 +3989,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4019,11 +4022,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4052,11 +4055,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4085,11 +4088,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4101,31 +4104,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4151,11 +4154,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4184,11 +4187,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4207,7 +4210,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4217,14 +4220,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4233,7 +4236,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4250,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4266,7 +4269,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4283,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4299,7 +4302,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4316,14 +4319,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>68</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4332,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4349,14 +4352,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4382,14 +4385,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4438,7 +4441,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4448,49 +4451,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4363.0749999999998</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>271</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
         <v>272</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>43</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>34</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4451.6199999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>273</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
         <v>274</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>275</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4954,10 +4990,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>8.1600</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -203,6 +212,15 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -233,6 +251,15 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>CLARITINE 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
@@ -257,6 +284,15 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 100MG 30 CAP.</t>
   </si>
   <si>
@@ -317,12 +353,6 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>DICLAC 75 MG/3ML 5 AMPS.</t>
   </si>
   <si>
@@ -515,6 +545,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t xml:space="preserve">LOTERANOL 1%  DROPS</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -605,6 +644,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>OPHILOCOND FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -698,9 +746,6 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -716,6 +761,15 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -830,7 +884,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 9:10 PM</t>
+    <t>Monday, 2 June, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1801,7 +1855,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1834,7 +1888,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1851,7 +1905,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1867,7 +1921,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1884,7 +1938,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1917,7 +1971,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1933,7 +1987,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1950,7 +2004,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1966,7 +2020,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1976,14 +2030,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1992,31 +2046,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2025,14 +2079,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2042,14 +2096,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2058,20 +2112,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2079,10 +2133,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2091,14 +2145,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2108,14 +2162,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2124,14 +2178,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2141,14 +2195,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2157,7 +2211,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2174,11 +2228,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2190,7 +2244,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2207,14 +2261,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2223,14 +2277,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2240,14 +2294,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2256,14 +2310,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2273,7 +2327,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2296,7 +2350,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2306,14 +2360,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2329,7 +2383,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2339,11 +2393,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>37</v>
@@ -2355,14 +2409,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2372,14 +2426,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,14 +2442,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2405,14 +2459,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2421,14 +2475,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2438,11 +2492,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2454,14 +2508,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2471,14 +2525,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2487,14 +2541,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2504,14 +2558,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2520,14 +2574,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2537,11 +2591,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2553,14 +2607,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2570,14 +2624,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2586,14 +2640,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2603,14 +2657,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2619,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2636,14 +2690,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2659,7 +2713,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2669,14 +2723,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2685,14 +2739,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2702,14 +2756,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2718,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2735,14 +2789,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2751,14 +2805,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2768,14 +2822,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2791,7 +2845,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2824,7 +2878,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2841,7 +2895,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2857,7 +2911,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2867,14 +2921,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2883,7 +2937,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2900,14 +2954,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2916,14 +2970,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2933,14 +2987,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2949,7 +3003,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2966,11 +3020,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2982,14 +3036,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,14 +3053,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3022,24 +3076,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3048,14 +3102,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3072,7 +3126,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3088,7 +3142,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3105,7 +3159,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3121,7 +3175,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,14 +3185,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3147,28 +3201,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3180,14 +3234,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3204,7 +3258,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3220,7 +3274,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,14 +3284,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3246,14 +3300,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,14 +3317,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3279,31 +3333,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3312,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3383,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,7 +3399,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3362,14 +3416,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3432,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3449,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,11 +3482,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3444,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,14 +3515,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3477,7 +3531,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3494,11 +3548,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3510,14 +3564,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,11 +3581,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3543,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3614,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3647,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3609,7 +3663,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3622,15 +3676,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3642,14 +3696,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,14 +3713,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3675,14 +3729,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3746,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,7 +3762,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3725,14 +3779,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3774,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,11 +3845,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3807,31 +3861,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,14 +3894,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,11 +3911,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3873,14 +3927,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,14 +3944,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,14 +3960,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,14 +3977,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>231</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3946,7 +4000,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +4010,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3979,7 +4033,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +4043,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,14 +4059,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,7 +4076,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4045,7 +4099,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4078,7 +4132,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4092,10 +4146,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4121,11 +4175,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4137,31 +4191,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,31 +4224,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4210,24 +4264,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,7 +4290,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4249,18 +4303,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,31 +4323,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,31 +4356,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>261</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,31 +4389,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,14 +4422,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,14 +4439,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4401,14 +4455,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,11 +4472,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4434,14 +4488,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4451,11 +4505,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4467,14 +4521,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,49 +4538,280 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>274</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>45</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>43</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>275</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>277</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>45</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>43</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>278</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>280</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>45</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>43</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>273</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>283</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>43</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>200</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>78</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>43</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>286</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>288</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>45</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>43</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>14</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>289</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>290</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>43</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>34</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q98" s="12">
+      <c t="s" r="Q105" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4451.6199999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>273</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>274</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>275</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4859.8999999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>291</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>292</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>293</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4995,10 +5280,45 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -326,6 +326,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DANTRELAX COMPOUND 30 CAPS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -482,6 +491,12 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -545,6 +560,12 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>LIT UP SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOTERANOL 1%  DROPS</t>
   </si>
   <si>
@@ -749,7 +770,16 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -884,7 +914,7 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 9:22 PM</t>
+    <t>Monday, 2 June, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2449,7 +2479,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2466,7 +2496,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2482,7 +2512,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,14 +2522,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2515,7 +2545,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,14 +2555,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,14 +2571,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,11 +2621,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2614,7 +2644,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2647,7 +2677,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2664,7 +2694,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2680,7 +2710,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2697,7 +2727,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,14 +2753,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2779,7 +2809,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2796,7 +2826,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2812,7 +2842,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2862,7 +2892,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2878,7 +2908,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2895,7 +2925,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2911,7 +2941,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2928,7 +2958,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2944,7 +2974,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2954,14 +2984,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2970,14 +3000,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,11 +3017,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -3010,7 +3040,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3027,7 +3057,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3043,7 +3073,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3069,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3093,7 +3123,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3109,7 +3139,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3119,11 +3149,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3135,14 +3165,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,14 +3182,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3168,7 +3198,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3185,11 +3215,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3201,31 +3231,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3234,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3251,14 +3281,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3267,28 +3297,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3300,14 +3330,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3317,14 +3347,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3346,7 +3376,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3357,7 +3387,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3373,7 +3403,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3383,14 +3413,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3406,7 +3436,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,11 +3446,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3432,28 +3462,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3465,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,14 +3512,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3498,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3531,14 +3561,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,11 +3578,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3564,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3597,14 +3627,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3614,11 +3644,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3630,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3663,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3696,14 +3726,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3729,14 +3759,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3762,7 +3792,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3779,11 +3809,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3795,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3828,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,11 +3875,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3861,7 +3891,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3874,15 +3904,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3894,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3911,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3927,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,7 +3990,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3973,18 +4003,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4026,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4043,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4059,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4076,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4092,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,11 +4139,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4125,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4142,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4158,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,7 +4205,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4198,7 +4228,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4208,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4231,7 +4261,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4245,10 +4275,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4257,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4274,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4290,7 +4320,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4307,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4323,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4340,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4356,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4389,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,31 +4452,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4455,31 +4485,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4495,24 +4525,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4521,31 +4551,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4554,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4571,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4587,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4604,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4620,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4637,14 +4667,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>85</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4660,7 +4690,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4670,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4686,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4703,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4719,7 +4749,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4736,14 +4766,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4752,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4769,49 +4799,181 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>292</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>293</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>43</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>207</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>295</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>78</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>43</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>296</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>298</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>45</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>43</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>14</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>299</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>300</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>43</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>34</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q105" s="12">
+      <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4859.8999999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>291</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>292</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>293</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5373.3900000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>301</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>302</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>303</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5315,10 +5477,30 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>142.50</t>
   </si>
   <si>
-    <t>47.0250</t>
+    <t>94.0500</t>
   </si>
   <si>
     <t>DANTRELAX COMPOUND 30 CAPS.</t>
@@ -422,6 +422,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -539,9 +551,6 @@
     <t>6:4</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -563,9 +572,6 @@
     <t>LIT UP SOAP 100 GM</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOTERANOL 1%  DROPS</t>
   </si>
   <si>
@@ -803,9 +809,6 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -824,6 +827,12 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/10MG 30 TABLETS</t>
   </si>
   <si>
@@ -851,7 +860,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>39:0</t>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>جونتي عمال</t>
@@ -884,18 +896,12 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
     <t>22:0</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>صابون النابلسي</t>
   </si>
   <si>
@@ -911,10 +917,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>Monday, 2 June, 2025 9:31 PM</t>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>Monday, 2 June, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2446,7 +2455,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2463,7 +2472,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2875,7 +2884,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2885,11 +2894,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2901,7 +2910,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,14 +2993,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3050,11 +3059,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,14 +3092,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3099,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3123,7 +3132,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3139,7 +3148,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,11 +3257,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,11 +3290,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3297,31 +3306,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3330,24 +3339,24 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3370,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,7 +3389,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3403,7 +3412,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,28 +3471,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3495,31 +3504,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3535,7 +3544,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,11 +3587,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,11 +3620,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,14 +3686,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3700,7 +3709,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,11 +3752,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,11 +3818,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3825,7 +3834,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3842,11 +3851,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4003,7 +4012,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4011,10 +4020,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,31 +4032,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4082,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4096,7 +4105,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4195,7 +4204,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4209,7 +4218,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4294,7 +4303,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4327,7 +4336,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,11 +4346,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,14 +4412,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,11 +4511,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,11 +4544,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,31 +4593,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,31 +4626,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4676,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4690,7 +4699,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,14 +4709,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,11 +4742,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4749,7 +4758,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>289</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,7 +4791,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,14 +4874,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,14 +4907,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,49 +4940,115 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5373.3900000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>300</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>45</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>43</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>14</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>301</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>302</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>43</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>34</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>303</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5611.415</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>304</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>305</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>306</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5497,10 +5572,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t xml:space="preserve"> بودره نلج خمس خمسات</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
@@ -59,9 +77,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -140,15 +155,9 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>159.00</t>
   </si>
   <si>
@@ -452,6 +461,18 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -638,12 +659,6 @@
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -857,6 +872,12 @@
     <t>15:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جلسرين اوبال </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -923,7 +944,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 9:33 PM</t>
+    <t>Monday, 2 June, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,15 +1624,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1623,31 +1644,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1663,24 +1684,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1689,31 +1710,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1722,31 +1743,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1755,31 +1776,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1801,18 +1822,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1861,24 +1882,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1887,20 +1908,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1911,7 +1932,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1927,13 +1948,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1960,13 +1981,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1977,7 +1998,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1993,13 +2014,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2010,7 +2031,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2032,7 +2053,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2043,7 +2064,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2065,7 +2086,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2076,7 +2097,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2092,13 +2113,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2109,7 +2130,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2125,24 +2146,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2151,31 +2172,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2191,7 +2212,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2224,24 +2245,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2250,20 +2271,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2274,7 +2295,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2290,24 +2311,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2316,31 +2337,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2356,24 +2377,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2382,31 +2403,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2422,13 +2443,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2439,7 +2460,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2455,13 +2476,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2472,7 +2493,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2488,13 +2509,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2505,7 +2526,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2521,13 +2542,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2538,7 +2559,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2554,24 +2575,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2587,24 +2608,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2613,31 +2634,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2646,28 +2667,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2686,13 +2707,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2719,13 +2740,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2736,7 +2757,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2752,13 +2773,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2769,7 +2790,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2778,31 +2799,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,31 +2832,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2851,13 +2872,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2868,7 +2889,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2884,21 +2905,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2910,20 +2931,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2956,7 +2977,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2967,7 +2988,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2983,13 +3004,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3000,7 +3021,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3016,24 +3037,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3042,31 +3063,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3075,31 +3096,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3108,31 +3129,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3141,20 +3162,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3165,7 +3186,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3181,21 +3202,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3207,31 +3228,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,28 +3261,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3273,31 +3294,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3306,7 +3327,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3319,15 +3340,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3339,31 +3360,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3372,31 +3393,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3438,31 +3459,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,31 +3492,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,31 +3525,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,31 +3558,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,11 +3608,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3603,31 +3624,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,28 +3657,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3669,31 +3690,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,28 +3723,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3735,31 +3756,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3768,31 +3789,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,7 +3822,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3814,18 +3835,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,31 +3855,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,28 +3888,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3900,31 +3921,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,28 +3954,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3966,31 +3987,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,31 +4020,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,20 +4053,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4056,7 +4077,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4072,24 +4093,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,7 +4119,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4115,7 +4136,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4138,24 +4159,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>240</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,31 +4185,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,31 +4218,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4237,13 +4258,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4254,7 +4275,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4270,13 +4291,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4284,10 +4305,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,31 +4317,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4336,24 +4357,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,31 +4383,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4402,24 +4423,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,31 +4449,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,31 +4482,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4507,18 +4528,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,31 +4548,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4567,24 +4588,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4600,13 +4621,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4617,7 +4638,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4633,24 +4654,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,31 +4680,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4699,24 +4720,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4732,21 +4753,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4758,31 +4779,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,31 +4812,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,31 +4845,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>293</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4857,31 +4878,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4897,24 +4918,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,31 +4944,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4956,31 +4977,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4989,66 +5010,165 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5611.415</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>304</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>81</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>13</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>305</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>306</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>307</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>12</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>13</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>20</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>308</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>309</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>13</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>39</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5671.335</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>311</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>312</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>313</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5582,10 +5702,25 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>ALGASON MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -524,6 +533,9 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GANVIR 0.15% OPHTHALMIC GEL 10 GM</t>
+  </si>
+  <si>
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
@@ -944,7 +956,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 9:34 PM</t>
+    <t>Monday, 2 June, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1663,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1661,11 +1673,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1727,14 +1739,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1750,7 +1762,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1767,7 +1779,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1783,7 +1795,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1793,14 +1805,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1842,31 +1854,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1875,31 +1887,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1915,7 +1927,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1925,14 +1937,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1965,7 +1977,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1981,7 +1993,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2014,7 +2026,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2031,7 +2043,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2047,7 +2059,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2064,7 +2076,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2097,7 +2109,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2130,7 +2142,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2146,7 +2158,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2163,7 +2175,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2179,7 +2191,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2205,31 +2217,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2245,24 +2257,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2278,7 +2290,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2288,14 +2300,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2304,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2328,7 +2340,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2344,7 +2356,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2354,14 +2366,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2410,7 +2422,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2476,7 +2488,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2493,7 +2505,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2509,7 +2521,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2526,7 +2538,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2542,7 +2554,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2559,7 +2571,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2575,7 +2587,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2592,7 +2604,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2608,7 +2620,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2618,14 +2630,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2641,7 +2653,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2740,7 +2752,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2773,7 +2785,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2790,7 +2802,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2806,7 +2818,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2823,7 +2835,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2905,7 +2917,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2922,7 +2934,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2938,7 +2950,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,11 +2960,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3021,7 +3033,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3037,7 +3049,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3103,7 +3115,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3120,7 +3132,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3136,7 +3148,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3202,7 +3214,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3219,7 +3231,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3235,7 +3247,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,11 +3356,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3377,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3393,7 +3405,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3410,11 +3422,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3433,24 +3445,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3492,31 +3504,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3591,31 +3603,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3631,7 +3643,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3657,28 +3669,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3730,7 +3742,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,11 +3752,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3806,11 +3818,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3928,7 +3940,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3945,7 +3957,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3961,7 +3973,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,11 +3983,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3987,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,7 +4032,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4037,11 +4049,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4053,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,7 +4098,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,31 +4131,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,28 +4197,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>245</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4284,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4416,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4456,7 +4468,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4470,10 +4482,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,14 +4511,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,14 +4527,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4544,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,14 +4560,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4565,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4581,14 +4593,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,14 +4610,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4621,7 +4633,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,14 +4643,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,14 +4659,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,14 +4676,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,14 +4709,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,14 +4725,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4730,14 +4742,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4746,31 +4758,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,31 +4791,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,10 +4845,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4885,7 +4897,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,14 +4907,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4911,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,11 +4940,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>91</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4944,7 +4956,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4961,14 +4973,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>300</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,7 +4989,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4994,14 +5006,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5017,7 +5029,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5027,14 +5039,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5043,14 +5055,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,14 +5072,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5076,14 +5088,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,14 +5105,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5116,7 +5128,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5126,49 +5138,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5671.335</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>311</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>12</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>13</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>20</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>312</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
         <v>313</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>13</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>42</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5772.335</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>315</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>316</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>317</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5717,10 +5795,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -452,12 +452,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
     <t>114.0000</t>
   </si>
   <si>
@@ -548,7 +554,10 @@
     <t>192.00</t>
   </si>
   <si>
-    <t>126.7200</t>
+    <t>190.0800</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>GYNERA 21 C.TABS</t>
@@ -758,9 +767,6 @@
     <t>21.1500</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
   </si>
   <si>
@@ -956,7 +962,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 9:47 PM</t>
+    <t>Monday, 2 June, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3033,7 +3039,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3125,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,11 +3230,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>33</v>
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,7 +3345,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3379,7 +3385,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,14 +3428,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>182</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3445,7 +3451,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3478,7 +3484,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,11 +3494,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3504,31 +3510,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,24 +3543,24 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3577,7 +3583,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,7 +3593,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3610,7 +3616,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3669,28 +3675,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3709,24 +3715,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3775,7 +3781,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3791,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3824,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3874,7 +3880,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,14 +3923,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3940,7 +3946,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3973,7 +3979,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,11 +4022,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4072,7 +4078,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4089,7 +4095,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4105,7 +4111,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4122,7 +4128,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4138,7 +4144,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4164,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4185,10 +4191,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,7 +4203,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4210,18 +4216,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4237,24 +4243,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4270,7 +4276,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>33</v>
@@ -4402,7 +4408,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4416,7 +4422,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>33</v>
@@ -4428,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,11 +4451,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>33</v>
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4501,7 +4507,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4534,7 +4540,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,11 +4550,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4560,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4666,7 +4672,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4676,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4699,7 +4705,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4709,11 +4715,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4765,7 +4771,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,14 +4781,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4791,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4808,11 +4814,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>33</v>
@@ -4824,31 +4830,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,10 +4917,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,14 +4979,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>91</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,10 +5016,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,7 +5028,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5039,14 +5045,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>304</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,7 +5061,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5072,14 +5078,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>84</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5105,14 +5111,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5128,7 +5134,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5138,14 +5144,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5154,14 +5160,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5171,11 +5177,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5187,14 +5193,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5204,49 +5210,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>314</v>
       </c>
-      <c t="s" r="Q116" s="12">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>315</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>13</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>42</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q117" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5772.335</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>315</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>316</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5873.3149999999996</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
         <v>317</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>318</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>319</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5805,10 +5844,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 9:48 PM</t>
+    <t>Monday, 2 June, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -185,6 +185,18 @@
     <t>8.1600</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 30 GM</t>
   </si>
   <si>
@@ -410,9 +422,6 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>79.6800</t>
   </si>
   <si>
@@ -824,9 +833,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
     <t>32.6400</t>
   </si>
   <si>
@@ -899,48 +905,45 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>38:0</t>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>جونتي عمال</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
     <t>صابون النابلسي</t>
   </si>
   <si>
@@ -956,13 +959,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>Monday, 2 June, 2025 9:49 PM</t>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>Monday, 2 June, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,7 +2002,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2009,14 +2012,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2025,14 +2028,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2042,11 +2045,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2058,14 +2061,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2075,14 +2078,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2091,14 +2094,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2108,14 +2111,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2124,7 +2127,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2141,14 +2144,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2157,7 +2160,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2174,14 +2177,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2190,14 +2193,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2207,14 +2210,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2223,14 +2226,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2247,7 +2250,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2269,7 +2272,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2277,7 +2280,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -2289,31 +2292,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2322,14 +2325,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2346,7 +2349,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2362,7 +2365,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,11 +2375,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>33</v>
@@ -2388,7 +2391,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2405,11 +2408,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>33</v>
@@ -2421,14 +2424,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2438,14 +2441,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2454,14 +2457,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2471,14 +2474,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2504,14 +2507,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2520,7 +2523,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2537,14 +2540,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2553,14 +2556,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,11 +2573,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>45</v>
@@ -2586,14 +2589,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,14 +2606,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,14 +2639,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2652,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2673,10 +2676,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2685,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2718,14 +2721,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,11 +2771,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2784,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,11 +2804,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,14 +2837,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2850,14 +2853,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2867,14 +2870,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>135</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2890,7 +2893,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2916,14 +2919,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,14 +2936,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2956,7 +2959,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2973,7 +2976,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2989,7 +2992,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2999,11 +3002,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3015,14 +3018,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3039,7 +3042,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,7 +3084,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3098,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3121,7 +3124,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>158</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,14 +3167,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3187,7 +3190,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3204,7 +3207,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3220,7 +3223,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3233,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,11 +3266,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>33</v>
@@ -3286,7 +3289,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3303,7 +3306,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3319,7 +3322,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,7 +3381,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3395,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3431,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,14 +3464,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>185</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3484,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3517,7 +3520,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,11 +3530,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3543,31 +3546,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,24 +3579,24 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3616,7 +3619,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,7 +3629,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3649,7 +3652,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3675,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,28 +3711,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3748,24 +3751,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3774,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3814,7 +3817,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3840,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3873,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3913,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3979,7 +3982,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4012,7 +4015,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4038,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4111,7 +4114,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4128,7 +4131,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4144,7 +4147,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4161,7 +4164,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4177,7 +4180,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4224,10 +4227,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,7 +4239,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4249,18 +4252,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4276,24 +4279,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4309,7 +4312,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4375,7 +4378,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4392,7 +4395,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4408,7 +4411,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4422,7 +4425,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>33</v>
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>33</v>
@@ -4474,7 +4477,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4507,7 +4510,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4521,10 +4524,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,7 +4586,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4606,7 +4609,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4639,7 +4642,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4705,7 +4708,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4738,7 +4741,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,11 +4751,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>33</v>
@@ -4764,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4804,7 +4807,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>33</v>
@@ -4863,31 +4866,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,10 +4953,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5002,7 +5005,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,7 +5031,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5045,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,7 +5064,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5078,14 +5081,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5094,7 +5097,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5111,14 +5114,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>84</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5127,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,14 +5147,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5160,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,14 +5180,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5193,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5210,11 +5213,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>21</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5233,7 +5236,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5243,49 +5246,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>315</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>316</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5873.3149999999996</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>13</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>42</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>317</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5926.9949999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>318</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
         <v>319</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>320</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5849,10 +5885,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>193.00</t>
+  </si>
+  <si>
+    <t>30.8800</t>
+  </si>
+  <si>
     <t>CAL-MAG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -383,6 +392,15 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -581,9 +599,6 @@
     <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
     <t>85.0000</t>
   </si>
   <si>
@@ -932,6 +947,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -965,7 +983,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 9:54 PM</t>
+    <t>Monday, 2 June, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2167,7 +2185,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2217,7 +2235,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2233,7 +2251,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2250,7 +2268,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2266,7 +2284,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2292,28 +2310,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -2332,24 +2350,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2365,7 +2383,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2441,11 +2459,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>33</v>
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2497,7 +2515,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2580,7 +2598,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2629,7 +2647,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2646,7 +2664,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2662,7 +2680,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2679,7 +2697,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2728,7 +2746,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2837,11 +2855,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2860,7 +2878,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2877,7 +2895,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2893,7 +2911,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2926,7 +2944,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3025,7 +3043,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3101,11 +3119,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3117,7 +3135,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3134,11 +3152,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3256,7 +3274,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3355,7 +3373,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,11 +3383,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>33</v>
@@ -3381,7 +3399,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3398,11 +3416,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3487,7 +3505,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3497,11 +3515,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3563,11 +3581,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3579,31 +3597,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3652,21 +3670,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>33</v>
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3718,7 +3736,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,31 +3762,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3817,13 +3835,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3850,7 +3868,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,14 +3878,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,11 +3911,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,7 +3960,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3959,11 +3977,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3982,7 +4000,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4015,7 +4033,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,11 +4142,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,7 +4191,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4190,11 +4208,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4241,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,7 +4257,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,20 +4290,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4296,7 +4314,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4312,7 +4330,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,11 +4340,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>33</v>
@@ -4338,24 +4356,24 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4378,7 +4396,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>185</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4411,7 +4429,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4439,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4477,7 +4495,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4510,7 +4528,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4524,7 +4542,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>33</v>
@@ -4536,14 +4554,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4642,7 +4660,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4675,7 +4693,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4692,7 +4710,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4708,7 +4726,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4736,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4741,7 +4759,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,11 +4769,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>33</v>
@@ -4767,14 +4785,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4802,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4807,7 +4825,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,14 +4835,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4840,7 +4858,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4873,7 +4891,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4901,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,31 +4917,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4939,24 +4957,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4983,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4986,10 +5004,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,14 +5016,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,11 +5033,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,14 +5066,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5064,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5099,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5118,10 +5136,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>294</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5147,14 +5165,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>43</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5163,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,14 +5198,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>26</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,14 +5231,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5236,7 +5254,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,14 +5264,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>21</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5262,14 +5280,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,49 +5297,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>320</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>12</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>20</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>321</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>322</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>42</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5926.9949999999999</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>318</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>319</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>320</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5976.875</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>324</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>325</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>326</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5890,10 +5974,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMRIZOLE 500MG 5 VAGINAL SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -272,9 +284,6 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>43.00</t>
   </si>
   <si>
@@ -587,6 +596,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -599,9 +614,6 @@
     <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
   </si>
   <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -632,7 +644,7 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>47.5200</t>
   </si>
   <si>
     <t>LIT UP SOAP 100 GM</t>
@@ -755,9 +767,6 @@
     <t>PONOFORTE 500MG 20 CAPS.</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
   </si>
   <si>
@@ -779,9 +788,6 @@
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -791,6 +797,12 @@
     <t>21.1500</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
   </si>
   <si>
@@ -983,7 +995,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 9:56 PM</t>
+    <t>Monday, 2 June, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,7 +1834,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1832,14 +1844,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1848,14 +1860,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1872,7 +1884,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1905,7 +1917,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1914,31 +1926,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1947,28 +1959,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>33</v>
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2053,7 +2065,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2228,11 +2240,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>33</v>
@@ -2244,7 +2256,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2334,7 +2346,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2350,21 +2362,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2383,24 +2395,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2416,7 +2428,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2482,7 +2494,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2492,11 +2504,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>33</v>
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2548,7 +2560,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2591,14 +2603,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2614,7 +2626,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2631,7 +2643,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2647,7 +2659,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2664,7 +2676,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2680,7 +2692,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2697,7 +2709,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2713,7 +2725,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2730,7 +2742,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2746,7 +2758,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2779,7 +2791,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2812,7 +2824,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2888,11 +2900,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2911,7 +2923,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2944,7 +2956,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2961,7 +2973,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2977,7 +2989,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3010,7 +3022,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3076,7 +3088,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3093,7 +3105,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3109,7 +3121,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3159,7 +3171,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3201,7 +3213,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3241,7 +3253,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3267,14 +3279,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3307,7 +3319,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3324,7 +3336,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3340,7 +3352,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3350,14 +3362,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3383,11 +3395,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>33</v>
@@ -3406,7 +3418,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3423,7 +3435,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3439,7 +3451,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3498,7 +3510,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3515,11 +3527,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3581,14 +3593,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3614,7 +3626,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3647,11 +3659,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3663,31 +3675,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3729,28 +3741,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>33</v>
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3795,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3812,14 +3824,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3828,31 +3840,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3868,7 +3880,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,14 +3890,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3894,28 +3906,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3927,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3944,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3967,7 +3979,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3977,11 +3989,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3993,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,14 +4022,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4043,11 +4055,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4076,11 +4088,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>33</v>
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4109,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4125,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4165,7 +4177,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4182,7 +4194,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4198,7 +4210,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4208,11 +4220,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,7 +4269,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4274,11 +4286,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4290,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4323,7 +4335,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4340,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4356,31 +4368,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4406,11 +4418,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>33</v>
@@ -4422,28 +4434,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>191</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4488,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4505,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4554,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4571,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4587,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,11 +4616,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>33</v>
@@ -4620,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4637,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4653,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4719,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4748,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,14 +4781,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4785,14 +4797,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4818,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,14 +4847,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4851,14 +4863,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,11 +4880,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>33</v>
@@ -4884,14 +4896,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4901,14 +4913,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4917,14 +4929,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4934,11 +4946,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>33</v>
@@ -4950,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4967,11 +4979,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>33</v>
@@ -4983,28 +4995,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5016,31 +5028,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5049,31 +5061,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5082,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5099,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5115,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5132,14 +5144,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5148,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,14 +5177,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5181,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5198,14 +5210,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5214,7 +5226,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5231,14 +5243,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5247,14 +5259,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5264,14 +5276,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5280,14 +5292,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5297,14 +5309,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5313,7 +5325,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5330,14 +5342,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5346,14 +5358,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5363,49 +5375,148 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>321</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>94</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>322</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>323</v>
       </c>
-      <c t="s" r="Q120" s="12">
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>324</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>12</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>20</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>325</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>326</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>46</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q123" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5976.875</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>324</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>325</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>326</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6202.7150000000001</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>328</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>329</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>330</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5984,10 +6095,25 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -332,6 +332,9 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -713,6 +716,15 @@
     <t>6.2700</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -776,6 +788,12 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -827,6 +845,9 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
@@ -914,9 +935,6 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -995,7 +1013,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:00 PM</t>
+    <t>Monday, 2 June, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2527,7 +2545,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2541,10 +2559,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2553,7 +2571,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2570,11 +2588,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2586,7 +2604,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2607,7 +2625,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>49</v>
@@ -2619,7 +2637,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2636,11 +2654,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>33</v>
@@ -2652,7 +2670,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2669,11 +2687,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>49</v>
@@ -2685,7 +2703,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2702,11 +2720,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>49</v>
@@ -2718,7 +2736,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2735,11 +2753,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>33</v>
@@ -2751,7 +2769,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2768,11 +2786,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>49</v>
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2801,7 +2819,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2817,7 +2835,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2834,11 +2852,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>33</v>
@@ -2850,7 +2868,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2867,11 +2885,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>49</v>
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2916,7 +2934,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2933,11 +2951,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2949,7 +2967,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2966,11 +2984,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2982,7 +3000,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2999,11 +3017,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>33</v>
@@ -3015,7 +3033,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3036,10 +3054,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3048,7 +3066,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3081,7 +3099,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3098,11 +3116,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>33</v>
@@ -3114,7 +3132,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3131,11 +3149,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3164,11 +3182,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3180,7 +3198,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3197,11 +3215,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -3213,7 +3231,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3230,11 +3248,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3246,7 +3264,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3263,11 +3281,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>33</v>
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3300,10 +3318,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3312,7 +3330,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3329,11 +3347,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>52</v>
@@ -3345,7 +3363,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3378,7 +3396,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3411,7 +3429,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3428,11 +3446,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>33</v>
@@ -3444,7 +3462,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3461,11 +3479,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,11 +3512,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>33</v>
@@ -3510,7 +3528,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3527,11 +3545,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3543,7 +3561,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3560,11 +3578,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3576,7 +3594,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3593,14 +3611,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3609,7 +3627,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3626,11 +3644,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3642,7 +3660,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3659,11 +3677,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3675,7 +3693,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3692,11 +3710,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3708,7 +3726,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3725,11 +3743,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3741,7 +3759,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3758,11 +3776,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>33</v>
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,11 +3809,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>33</v>
@@ -3807,7 +3825,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3824,11 +3842,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>33</v>
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3861,10 +3879,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,7 +3891,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3890,11 +3908,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3906,7 +3924,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3923,11 +3941,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3939,14 +3957,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3960,7 +3978,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>33</v>
@@ -3972,7 +3990,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3989,11 +4007,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4005,7 +4023,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4022,11 +4040,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4038,7 +4056,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4055,11 +4073,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4071,7 +4089,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4088,11 +4106,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>33</v>
@@ -4104,7 +4122,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4121,11 +4139,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4137,7 +4155,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4154,11 +4172,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>33</v>
@@ -4170,7 +4188,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4187,11 +4205,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4203,14 +4221,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,11 +4238,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4236,14 +4254,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,11 +4271,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4269,7 +4287,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4286,11 +4304,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4302,14 +4320,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,14 +4337,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4335,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,14 +4370,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4368,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4392,7 +4410,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4408,7 +4426,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,7 +4452,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4447,18 +4465,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,31 +4485,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,7 +4518,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4517,11 +4535,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4533,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>194</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,14 +4584,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,11 +4601,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4599,14 +4617,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4634,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,14 +4650,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4667,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,11 +4700,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>33</v>
@@ -4698,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,11 +4733,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>33</v>
@@ -4738,7 +4756,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4752,10 +4770,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,7 +4782,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4781,11 +4799,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4804,7 +4822,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4821,7 +4839,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4837,7 +4855,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,14 +4865,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4870,7 +4888,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4931,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4936,7 +4954,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,14 +4964,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4969,7 +4987,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5002,7 +5020,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,14 +5030,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5035,7 +5053,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5045,11 +5063,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>33</v>
@@ -5061,14 +5079,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,11 +5096,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>33</v>
@@ -5094,28 +5112,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5127,31 +5145,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5167,24 +5185,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5200,7 +5218,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5226,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,14 +5261,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5259,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,14 +5294,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5299,7 +5317,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,14 +5327,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>316</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,7 +5343,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5342,14 +5360,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5358,14 +5376,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,14 +5393,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5391,14 +5409,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,14 +5426,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5424,7 +5442,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5441,14 +5459,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5457,14 +5475,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5474,49 +5492,148 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>327</v>
       </c>
-      <c t="s" r="Q123" s="12">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>94</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>328</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>330</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>12</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>20</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>331</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>332</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>46</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q126" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6202.7150000000001</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>328</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>329</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>330</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6380.7150000000001</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>334</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>335</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>336</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6110,10 +6227,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -1013,7 +1013,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:03 PM</t>
+    <t>Monday, 2 June, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -407,267 +407,273 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>85.00</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>DICLAC 75 MG/3ML 5 AMPS.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DIDDER 75 GM CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GANVIR 0.15% OPHTHALMIC GEL 10 GM</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>190.0800</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>LIT UP SOAP 100 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOTERANOL 1%  DROPS</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>MEPAFURAN 50 MG 20 CAPS</t>
+  </si>
+  <si>
     <t>17.0000</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>DICLAC 75 MG/3ML 5 AMPS.</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>DIDDER 75 GM CREAM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>45.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GANVIR 0.15% OPHTHALMIC GEL 10 GM</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>190.0800</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>LIT UP SOAP 100 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOTERANOL 1%  DROPS</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -815,6 +821,9 @@
     <t>21.1500</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -977,7 +986,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1013,7 +1022,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:12 PM</t>
+    <t>Monday, 2 June, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2842,7 +2851,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,14 +2861,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3644,7 +3653,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3710,7 +3719,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3997,7 +4006,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,11 +4049,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4162,7 +4171,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,11 +4280,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4320,7 +4329,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4337,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,7 +4494,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4498,18 +4507,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,28 +4527,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4558,7 +4567,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4700,11 +4709,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>88</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>33</v>
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,11 +4775,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,11 +4841,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>33</v>
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,14 +4874,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,7 +4890,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4898,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4980,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4997,14 +5006,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5030,14 +5039,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5063,11 +5072,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>33</v>
@@ -5079,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5096,14 +5105,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5129,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5162,11 +5171,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>33</v>
@@ -5178,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5195,14 +5204,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,31 +5220,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,31 +5253,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5277,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5298,10 +5307,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5310,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5350,7 +5359,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5360,14 +5369,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5383,7 +5392,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5409,7 +5418,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5426,14 +5435,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5442,7 +5451,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5459,14 +5468,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>47</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5475,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5492,14 +5501,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>326</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>26</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,14 +5517,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5525,14 +5534,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>329</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5541,14 +5550,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5558,14 +5567,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5574,14 +5583,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5591,49 +5600,115 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>333</v>
       </c>
-      <c t="s" r="Q126" s="12">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>12</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>20</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>334</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>335</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>46</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q128" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6380.7150000000001</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>334</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>335</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>336</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6440.4750000000004</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>337</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>338</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>339</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6242,10 +6317,20 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -365,7 +374,10 @@
     <t>82.50</t>
   </si>
   <si>
-    <t>54.4500</t>
+    <t>81.6750</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
@@ -389,33 +401,36 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -428,9 +443,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>DIDDER 75 GM CREAM</t>
   </si>
   <si>
@@ -452,201 +464,207 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>79.6800</t>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GANVIR 0.15% OPHTHALMIC GEL 10 GM</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>190.0800</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>45.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GANVIR 0.15% OPHTHALMIC GEL 10 GM</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>190.0800</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -746,9 +764,6 @@
     <t>OMEGA P SYRUP 120 ML</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>110.0000</t>
   </si>
   <si>
@@ -839,6 +854,12 @@
     <t>21.4500</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -887,6 +908,15 @@
     <t>195.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -950,6 +980,12 @@
     <t>15:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جلسرين اوبال </t>
   </si>
   <si>
@@ -959,7 +995,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>37:0</t>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>80.0000</t>
   </si>
   <si>
     <t>جونتي عمال</t>
@@ -986,7 +1025,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1016,13 +1055,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>32:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>Monday, 2 June, 2025 10:13 PM</t>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>Monday, 2 June, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2455,7 +2494,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2472,7 +2511,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2488,7 +2527,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2498,14 +2537,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2514,14 +2553,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2554,7 +2593,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,14 +2603,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2580,7 +2619,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2597,7 +2636,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2620,7 +2659,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2646,14 +2685,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2663,14 +2702,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2703,7 +2742,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2736,7 +2775,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2745,14 +2784,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2762,14 +2801,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2778,14 +2817,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,14 +2834,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2811,14 +2850,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2828,14 +2867,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2844,14 +2883,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2861,14 +2900,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,14 +2916,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,11 +2933,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>49</v>
@@ -2910,14 +2949,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2927,14 +2966,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2943,14 +2982,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2960,11 +2999,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2976,14 +3015,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,11 +3032,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3009,14 +3048,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,14 +3065,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3042,14 +3081,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3059,14 +3098,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3075,14 +3114,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,14 +3131,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3108,14 +3147,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3125,14 +3164,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3141,14 +3180,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3158,14 +3197,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3174,14 +3213,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3214,7 +3253,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,14 +3263,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3240,7 +3279,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3257,14 +3296,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3273,7 +3312,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3290,14 +3329,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3306,14 +3345,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,14 +3362,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3346,7 +3385,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,14 +3395,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>52</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3372,14 +3411,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3389,14 +3428,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3405,14 +3444,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3422,14 +3461,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3438,14 +3477,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,11 +3494,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>33</v>
@@ -3471,14 +3510,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3488,14 +3527,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3504,14 +3543,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3528,7 +3567,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3544,7 +3583,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,14 +3593,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3570,7 +3609,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3587,11 +3626,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3603,14 +3642,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3620,14 +3659,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3653,7 +3692,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3676,7 +3715,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3693,7 +3732,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3719,11 +3758,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3735,7 +3774,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3752,11 +3791,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3768,31 +3807,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3840,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3822,10 +3861,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3841,21 +3880,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>33</v>
@@ -3867,14 +3906,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,14 +3923,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>195</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3907,7 +3946,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3917,14 +3956,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3933,31 +3972,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3966,14 +4005,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,14 +4022,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3999,31 +4038,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4071,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,14 +4088,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4065,14 +4104,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,14 +4121,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4098,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4115,11 +4154,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4131,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4148,14 +4187,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4164,7 +4203,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4181,11 +4220,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4197,14 +4236,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,11 +4253,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4230,14 +4269,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,14 +4286,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4270,7 +4309,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4287,7 +4326,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4303,7 +4342,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4352,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,11 +4385,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4362,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4379,11 +4418,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4402,7 +4441,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4419,7 +4458,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4445,11 +4484,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4461,14 +4500,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4517,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4494,7 +4533,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4511,14 +4550,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4534,24 +4573,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4560,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,14 +4616,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4600,24 +4639,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4643,11 +4682,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4659,14 +4698,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4715,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>195</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,14 +4748,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4725,14 +4764,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4781,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4758,7 +4797,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4775,11 +4814,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4798,7 +4837,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4812,10 +4851,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4831,7 +4870,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4864,7 +4903,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,14 +4913,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4890,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,11 +4946,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>33</v>
@@ -4930,7 +4969,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4944,10 +4983,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,7 +4995,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4973,11 +5012,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4996,7 +5035,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5013,7 +5052,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5029,7 +5068,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,14 +5078,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5062,7 +5101,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5111,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,14 +5127,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5144,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5128,7 +5167,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,11 +5177,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>33</v>
@@ -5154,14 +5193,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,14 +5210,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5194,7 +5233,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,14 +5243,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,14 +5259,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,14 +5276,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5260,7 +5299,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,11 +5309,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>33</v>
@@ -5293,24 +5332,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5319,28 +5358,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>314</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5352,31 +5391,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>316</v>
+        <v>49</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5385,31 +5424,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5418,14 +5457,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,14 +5474,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5451,14 +5490,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,11 +5507,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5484,14 +5523,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,14 +5540,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5517,14 +5556,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,14 +5573,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,14 +5589,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5567,14 +5606,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5583,14 +5622,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5600,14 +5639,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5633,11 +5672,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5649,14 +5688,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5666,49 +5705,214 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>18</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6440.4750000000004</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>337</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>338</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>339</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>12</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>332</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>340</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>341</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>13</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>14</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>343</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>94</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>344</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>345</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>346</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>12</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>20</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>347</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>348</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>46</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>349</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>6694.3800000000001</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>350</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>351</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>352</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6327,10 +6531,35 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -908,6 +908,9 @@
     <t>195.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -1061,7 +1064,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:17 PM</t>
+    <t>Monday, 2 June, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5167,7 +5170,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,14 +5180,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5193,14 +5196,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5213,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5229,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,14 +5246,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5259,14 +5262,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,14 +5279,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,14 +5295,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,14 +5312,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,14 +5328,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,11 +5345,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>33</v>
@@ -5358,14 +5361,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5375,14 +5378,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5391,14 +5394,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5408,14 +5411,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,14 +5427,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,11 +5444,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>33</v>
@@ -5457,31 +5460,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5490,14 +5493,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5507,11 +5510,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5523,14 +5526,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5540,11 +5543,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5556,14 +5559,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5577,10 +5580,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>329</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5589,14 +5592,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5606,14 +5609,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5629,7 +5632,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,14 +5642,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5655,7 +5658,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5672,14 +5675,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5688,7 +5691,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5705,14 +5708,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>338</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5721,7 +5724,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5738,14 +5741,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>94</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5761,7 +5764,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5771,14 +5774,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>342</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5787,14 +5790,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5804,14 +5807,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5820,14 +5823,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5837,14 +5840,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5860,7 +5863,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5870,49 +5873,82 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>348</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
         <v>349</v>
       </c>
-      <c t="s" r="Q133" s="12">
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>46</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q134" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>6694.3800000000001</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>350</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>6720.3800000000001</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
         <v>351</v>
       </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
         <v>352</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>353</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6556,10 +6592,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -911,6 +911,12 @@
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -1064,7 +1070,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:19 PM</t>
+    <t>Monday, 2 June, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5170,7 +5176,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5184,10 +5190,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5196,7 +5202,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5213,11 +5219,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>33</v>
@@ -5229,7 +5235,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5250,7 +5256,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>49</v>
@@ -5262,7 +5268,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5279,11 +5285,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>33</v>
@@ -5295,7 +5301,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5316,7 +5322,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5328,7 +5334,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5349,7 +5355,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>33</v>
@@ -5361,7 +5367,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5378,11 +5384,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>33</v>
@@ -5394,7 +5400,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5415,7 +5421,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5427,7 +5433,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5444,11 +5450,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>33</v>
@@ -5460,7 +5466,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5477,7 +5483,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5493,14 +5499,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5526,14 +5532,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5559,14 +5565,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5592,14 +5598,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5613,7 +5619,7 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>45</v>
@@ -5625,7 +5631,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5658,7 +5664,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5675,7 +5681,7 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
@@ -5691,7 +5697,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5708,11 +5714,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5724,7 +5730,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5741,14 +5747,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5757,7 +5763,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5774,7 +5780,7 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
@@ -5790,14 +5796,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5811,7 +5817,7 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>26</v>
@@ -5823,7 +5829,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5840,11 +5846,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5856,7 +5862,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5889,14 +5895,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5910,7 +5916,7 @@
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>45</v>
@@ -5918,13 +5924,13 @@
     </row>
     <row r="135" ht="24.75" customHeight="1">
       <c r="P135" s="13">
-        <v>6720.3800000000001</v>
+        <v>6850.3800000000001</v>
       </c>
       <c r="Q135" s="13"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
       <c t="s" r="A136" s="14">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -5932,13 +5938,13 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
       <c t="s" r="G136" s="15">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="16"/>
       <c t="s" r="K136" s="17">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L136" s="17"/>
       <c r="M136" s="17"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -176,6 +176,12 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -1070,7 +1076,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:20 PM</t>
+    <t>Monday, 2 June, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2074,7 +2080,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2117,11 +2123,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>33</v>
@@ -2133,14 +2139,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2150,11 +2156,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>33</v>
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2183,14 +2189,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2199,14 +2205,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2216,11 +2222,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2232,14 +2238,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2298,14 +2304,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2315,14 +2321,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2348,11 +2354,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>33</v>
@@ -2364,7 +2370,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2381,14 +2387,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2414,14 +2420,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2430,14 +2436,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2463,28 +2469,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2496,20 +2502,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2517,10 +2523,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2562,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2612,11 +2618,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>33</v>
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2678,11 +2684,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2734,7 +2740,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2793,7 +2799,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2942,14 +2948,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>49</v>
@@ -2998,7 +3004,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3031,7 +3037,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3041,11 +3047,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3064,7 +3070,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3078,7 +3084,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3156,14 +3162,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3272,11 +3278,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3321,7 +3327,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>52</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3470,14 +3476,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3536,11 +3542,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>33</v>
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3585,14 +3591,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3635,14 +3641,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3691,7 +3697,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3724,7 +3730,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3790,7 +3796,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3882,31 +3888,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3922,21 +3928,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>33</v>
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3965,11 +3971,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>33</v>
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3998,14 +4004,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4031,14 +4037,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4047,28 +4053,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4080,31 +4086,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4120,7 +4126,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4130,11 +4136,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>33</v>
@@ -4153,7 +4159,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4196,11 +4202,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4229,11 +4235,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4318,7 +4324,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4361,11 +4367,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>33</v>
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4427,11 +4433,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4460,11 +4466,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4476,7 +4482,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4493,7 +4499,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4516,7 +4522,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4641,7 +4647,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4654,18 +4660,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4674,28 +4680,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4714,7 +4720,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4724,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4757,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4879,7 +4885,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4893,10 +4899,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,7 +4928,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4955,11 +4961,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>33</v>
@@ -4978,7 +4984,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4992,7 +4998,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>33</v>
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5037,7 +5043,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5054,14 +5060,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5070,14 +5076,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5087,14 +5093,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5110,7 +5116,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5120,14 +5126,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5143,7 +5149,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5153,11 +5159,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5186,14 +5192,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5219,14 +5225,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>33</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5235,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5252,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5275,7 +5281,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5285,14 +5291,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>35</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5301,14 +5307,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5318,14 +5324,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5341,7 +5347,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5351,14 +5357,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5374,7 +5380,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5384,11 +5390,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>33</v>
@@ -5400,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5417,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5440,7 +5446,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5450,14 +5456,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>186</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5466,14 +5472,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5483,11 +5489,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>33</v>
@@ -5506,24 +5512,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>325</v>
+        <v>33</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5549,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5582,11 +5588,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5619,10 +5625,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>332</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5631,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5648,14 +5654,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5664,14 +5670,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5681,14 +5687,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5718,10 +5724,10 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5730,7 +5736,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5747,14 +5753,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>341</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5763,7 +5769,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5780,14 +5786,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>94</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5796,14 +5802,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5813,14 +5819,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>345</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5829,14 +5835,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5846,14 +5852,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>347</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5862,14 +5868,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5879,14 +5885,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5895,14 +5901,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5912,49 +5918,82 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>352</v>
       </c>
-      <c t="s" r="Q134" s="12">
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>353</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>46</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>354</v>
+      </c>
+      <c t="s" r="Q135" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>6850.3800000000001</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>353</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>354</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6928.3800000000001</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
         <v>355</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>356</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>357</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6603,10 +6642,15 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -596,6 +596,12 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>GANVIR 0.15% OPHTHALMIC GEL 10 GM</t>
   </si>
   <si>
@@ -656,6 +662,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -773,6 +788,12 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -851,6 +872,18 @@
     <t>95.00</t>
   </si>
   <si>
+    <t>SENSODERM صابون مرطب</t>
+  </si>
+  <si>
+    <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
   </si>
   <si>
@@ -902,9 +935,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>VENTAMOR CREAM 60 GM</t>
   </si>
   <si>
@@ -1076,7 +1106,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:21 PM</t>
+    <t>Monday, 2 June, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3664,7 +3694,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3674,11 +3704,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3690,14 +3720,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3707,14 +3737,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3730,7 +3760,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3740,14 +3770,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3763,7 +3793,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3773,14 +3803,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3789,14 +3819,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3806,14 +3836,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3829,7 +3859,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3839,11 +3869,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3855,14 +3885,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3872,11 +3902,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3888,14 +3918,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3905,11 +3935,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3921,31 +3951,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3961,21 +3991,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>33</v>
@@ -3987,14 +4017,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4004,11 +4034,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>33</v>
@@ -4020,14 +4050,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4037,14 +4067,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4053,14 +4083,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4070,14 +4100,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4086,31 +4116,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4119,14 +4149,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4136,14 +4166,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4159,24 +4189,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4185,14 +4215,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4202,14 +4232,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4225,7 +4255,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4235,14 +4265,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4251,14 +4281,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4268,11 +4298,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4284,14 +4314,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4301,14 +4331,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4317,7 +4347,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4334,11 +4364,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4357,7 +4387,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4390,7 +4420,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4400,14 +4430,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4416,14 +4446,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4433,14 +4463,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4449,14 +4479,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4466,14 +4496,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4482,14 +4512,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4499,11 +4529,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4515,14 +4545,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4532,11 +4562,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4555,7 +4585,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4572,7 +4602,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4598,11 +4628,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4614,14 +4644,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4631,14 +4661,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4647,14 +4677,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4664,11 +4694,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>33</v>
@@ -4680,7 +4710,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4693,15 +4723,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4713,14 +4743,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4734,10 +4764,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4746,14 +4776,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4763,11 +4793,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>33</v>
@@ -4779,28 +4809,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4812,14 +4842,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4829,14 +4859,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4852,7 +4882,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,11 +4892,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>33</v>
@@ -4878,14 +4908,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,11 +4925,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4911,14 +4941,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4928,14 +4958,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4944,14 +4974,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4961,11 +4991,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>33</v>
@@ -4984,7 +5014,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4998,10 +5028,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5017,24 +5047,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>106</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5043,14 +5073,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5060,11 +5090,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5083,7 +5113,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5116,7 +5146,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,14 +5156,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5149,7 +5179,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,14 +5189,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5182,7 +5212,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5199,7 +5229,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5215,7 +5245,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,14 +5255,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5241,14 +5271,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5258,11 +5288,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>33</v>
@@ -5274,14 +5304,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,14 +5321,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5307,14 +5337,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5324,14 +5354,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>133</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5340,14 +5370,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5357,14 +5387,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5373,14 +5403,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5390,14 +5420,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>33</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5406,14 +5436,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5423,11 +5453,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>33</v>
@@ -5439,14 +5469,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5456,14 +5486,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5472,14 +5502,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5489,11 +5519,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>33</v>
@@ -5505,14 +5535,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,14 +5552,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5538,31 +5568,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5571,31 +5601,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>107</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5604,28 +5634,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>331</v>
+        <v>26</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5637,31 +5667,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5670,31 +5700,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5710,7 +5740,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,14 +5750,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5743,7 +5773,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5753,11 +5783,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>136</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5769,14 +5799,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,14 +5816,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>342</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>343</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5802,14 +5832,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5819,14 +5849,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5842,7 +5872,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5852,14 +5882,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>347</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5868,14 +5898,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5885,14 +5915,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>350</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5901,7 +5931,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5918,14 +5948,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5934,14 +5964,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5951,49 +5981,214 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>46</v>
+        <v>352</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>354</v>
       </c>
-      <c t="s" r="Q135" s="12">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>12</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>347</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>355</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>356</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>14</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>358</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>96</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>13</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>359</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>360</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>361</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>12</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>13</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>20</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>362</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>363</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>13</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>46</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>364</v>
+      </c>
+      <c t="s" r="Q140" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6928.3800000000001</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>355</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>356</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>357</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>7206.9300000000003</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>365</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>366</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>367</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6647,10 +6842,35 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>D DEP 1000 CAPS</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -725,6 +734,12 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
+    <t>51.8700</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -749,7 +764,7 @@
     <t>152.00</t>
   </si>
   <si>
-    <t>76.0000</t>
+    <t>152.0000</t>
   </si>
   <si>
     <t>NORFLEX 30MG/ML 3 AMP.</t>
@@ -905,6 +920,15 @@
     <t>56.00</t>
   </si>
   <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -953,6 +977,9 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -1055,6 +1082,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -1070,7 +1100,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1106,7 +1139,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:22 PM</t>
+    <t>Monday, 2 June, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2803,13 +2836,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2836,7 +2869,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2853,7 +2886,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2862,7 +2895,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2879,14 +2912,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2902,7 +2935,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2919,7 +2952,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2935,7 +2968,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2945,14 +2978,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2982,10 +3015,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3015,10 +3048,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3034,7 +3067,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3044,11 +3077,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>49</v>
@@ -3060,14 +3093,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3077,14 +3110,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3110,11 +3143,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3126,14 +3159,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3143,11 +3176,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3166,7 +3199,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3183,7 +3216,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3199,7 +3232,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3209,14 +3242,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3232,7 +3265,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3242,14 +3275,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3258,14 +3291,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3275,14 +3308,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3298,7 +3331,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3315,7 +3348,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3331,7 +3364,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3341,11 +3374,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3357,14 +3390,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3381,7 +3414,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3407,14 +3440,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3423,7 +3456,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3440,14 +3473,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3463,7 +3496,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3473,14 +3506,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>177</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3489,14 +3522,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3506,14 +3539,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>180</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>52</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3529,7 +3562,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3546,7 +3579,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3562,7 +3595,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3572,14 +3605,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3605,11 +3638,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>33</v>
@@ -3628,7 +3661,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3645,7 +3678,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3661,7 +3694,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3671,14 +3704,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3704,14 +3737,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3720,14 +3753,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3737,11 +3770,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3753,14 +3786,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3770,14 +3803,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3786,14 +3819,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3803,14 +3836,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3819,14 +3852,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3836,14 +3869,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3859,7 +3892,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3869,14 +3902,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3885,14 +3918,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3902,7 +3935,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3925,7 +3958,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3935,11 +3968,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3951,14 +3984,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3968,11 +4001,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3984,31 +4017,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4017,24 +4050,24 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4057,7 +4090,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4107,7 +4140,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4123,7 +4156,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4133,14 +4166,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4156,7 +4189,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4166,14 +4199,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4182,28 +4215,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4222,24 +4255,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4248,14 +4281,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4265,11 +4298,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>33</v>
@@ -4281,14 +4314,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4298,14 +4331,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4321,7 +4354,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4331,11 +4364,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4347,14 +4380,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4364,14 +4397,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4380,14 +4413,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4397,11 +4430,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>33</v>
@@ -4413,7 +4446,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4430,11 +4463,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4453,7 +4486,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4486,7 +4519,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4496,14 +4529,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4512,14 +4545,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4529,11 +4562,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4545,14 +4578,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4562,14 +4595,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4578,14 +4611,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4595,11 +4628,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4611,14 +4644,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4628,11 +4661,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4651,7 +4684,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4661,14 +4694,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4677,14 +4710,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4694,14 +4727,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4717,7 +4750,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4727,14 +4760,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4743,14 +4776,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4760,14 +4793,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4776,7 +4809,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4793,14 +4826,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4816,24 +4849,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4842,14 +4875,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4859,14 +4892,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4882,24 +4915,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4925,11 +4958,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4941,14 +4974,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4958,14 +4991,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4974,14 +5007,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4991,14 +5024,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5007,14 +5040,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5024,14 +5057,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5040,31 +5073,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5073,14 +5106,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5090,14 +5123,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5106,31 +5139,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5139,14 +5172,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5156,14 +5189,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5179,7 +5212,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5193,7 +5226,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>33</v>
@@ -5205,14 +5238,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5222,7 +5255,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5245,7 +5278,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5255,14 +5288,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5271,14 +5304,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5288,11 +5321,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>33</v>
@@ -5304,14 +5337,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5321,14 +5354,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5337,7 +5370,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5354,11 +5387,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5370,14 +5403,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5387,14 +5420,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5403,14 +5436,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5420,14 +5453,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>313</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5436,14 +5469,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5453,14 +5486,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5469,14 +5502,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5486,14 +5519,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5509,7 +5542,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5519,14 +5552,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>185</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>33</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5542,7 +5575,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5552,14 +5585,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5568,14 +5601,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5585,7 +5618,7 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>235</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
@@ -5608,7 +5641,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5618,14 +5651,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>327</v>
+        <v>35</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5634,14 +5667,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5651,14 +5684,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
         <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5674,7 +5707,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5684,14 +5717,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5700,14 +5733,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5717,11 +5750,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>33</v>
@@ -5733,31 +5766,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>337</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5773,21 +5806,21 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>339</v>
+        <v>26</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>107</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5806,24 +5839,24 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>341</v>
+        <v>49</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5832,31 +5865,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5872,7 +5905,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5882,11 +5915,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5898,14 +5931,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5915,14 +5948,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5931,14 +5964,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5948,11 +5981,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5971,7 +6004,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5981,14 +6014,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>353</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6004,7 +6037,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6014,14 +6047,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6037,7 +6070,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6047,14 +6080,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>357</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6063,14 +6096,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6080,11 +6113,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6096,7 +6129,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6113,14 +6146,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6129,14 +6162,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6146,49 +6179,214 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>46</v>
+        <v>362</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
+        <v>363</v>
+      </c>
+      <c t="s" r="Q140" s="12">
         <v>364</v>
       </c>
-      <c t="s" r="Q140" s="12">
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>365</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>12</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>13</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>356</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>366</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>367</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>13</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>14</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>368</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>369</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>96</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>13</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>370</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>371</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>372</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>12</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>13</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>20</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>373</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>374</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>13</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>46</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>375</v>
+      </c>
+      <c t="s" r="Q145" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>7206.9300000000003</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>365</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
-        <v>366</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
-        <v>367</v>
-      </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>7685.8100000000004</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
+        <v>376</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
+        <v>377</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>378</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6867,10 +7065,35 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-02_00-00.xlsx
+++ b/DaySale_2025-06-02_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -296,6 +305,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -530,7 +551,7 @@
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>114.0000</t>
+    <t>228.0000</t>
   </si>
   <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
@@ -647,7 +668,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>124.0000</t>
+    <t>248.0000</t>
   </si>
   <si>
     <t xml:space="preserve">HELARIUM CREAM 30  GM</t>
@@ -953,9 +974,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -980,6 +998,12 @@
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -1004,6 +1028,15 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>WESTAIR 4 MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -1049,9 +1082,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -1130,6 +1160,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1139,7 +1175,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Monday, 2 June, 2025 10:27 PM</t>
+    <t>Monday, 2 June, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2143,7 +2179,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2153,11 +2189,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2169,14 +2205,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2186,14 +2222,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2209,7 +2245,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2219,11 +2255,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>33</v>
@@ -2235,14 +2271,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2252,11 +2288,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>33</v>
@@ -2268,14 +2304,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2292,7 +2328,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2308,7 +2344,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2341,7 +2377,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2358,7 +2394,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2374,7 +2410,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2391,7 +2427,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2407,7 +2443,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2424,7 +2460,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2440,7 +2476,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2490,7 +2526,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2506,7 +2542,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2523,7 +2559,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2539,7 +2575,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2556,7 +2592,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2572,21 +2608,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2605,7 +2641,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2615,14 +2651,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2631,31 +2667,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2664,14 +2700,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2704,7 +2740,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2721,7 +2757,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2737,7 +2773,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2747,14 +2783,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2763,14 +2799,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2780,14 +2816,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2796,14 +2832,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2813,14 +2849,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2829,31 +2865,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2862,14 +2898,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2879,14 +2915,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2895,31 +2931,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2935,7 +2971,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2952,7 +2988,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2968,7 +3004,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2985,7 +3021,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2994,14 +3030,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3015,10 +3051,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>127</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3027,14 +3063,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3048,10 +3084,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3060,14 +3096,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3077,14 +3113,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3093,14 +3129,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3110,14 +3146,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3126,14 +3162,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3143,14 +3179,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3159,14 +3195,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3176,14 +3212,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3192,14 +3228,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3209,11 +3245,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3225,14 +3261,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3242,14 +3278,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3258,14 +3294,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3275,14 +3311,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3291,14 +3327,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3308,14 +3344,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3324,14 +3360,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3341,14 +3377,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3357,14 +3393,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3374,11 +3410,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3390,14 +3426,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3414,7 +3450,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3430,7 +3466,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3447,7 +3483,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3463,7 +3499,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3473,11 +3509,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3489,7 +3525,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3506,11 +3542,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
@@ -3522,14 +3558,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3539,14 +3575,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>180</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3562,7 +3598,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3579,7 +3615,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3595,7 +3631,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3605,14 +3641,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3621,14 +3657,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3638,14 +3674,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3654,14 +3690,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3671,14 +3707,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3687,14 +3723,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3704,14 +3740,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3720,14 +3756,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3760,7 +3796,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3770,11 +3806,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3786,14 +3822,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3803,14 +3839,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3819,14 +3855,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3836,14 +3872,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3852,7 +3888,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3869,11 +3905,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3885,14 +3921,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3902,14 +3938,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3918,7 +3954,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3935,11 +3971,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3951,14 +3987,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3968,14 +4004,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3984,7 +4020,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4001,11 +4037,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4017,14 +4053,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4034,14 +4070,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4050,31 +4086,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4083,14 +4119,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4100,14 +4136,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4116,31 +4152,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4149,14 +4185,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4166,11 +4202,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>33</v>
@@ -4182,14 +4218,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4199,14 +4235,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4215,14 +4251,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4232,14 +4268,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4248,31 +4284,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4281,14 +4317,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4298,14 +4334,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4314,31 +4350,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4347,14 +4383,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4364,14 +4400,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4380,14 +4416,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4397,14 +4433,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4413,14 +4449,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4430,14 +4466,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4446,14 +4482,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
